--- a/propuestas_resolucion.xlsx
+++ b/propuestas_resolucion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="240">
   <si>
     <t>Nombre completo</t>
   </si>
@@ -61,21 +61,24 @@
     <t>Registro Social de Hogares (RSH) o Nivel Socioeconómico (NSE)</t>
   </si>
   <si>
+    <t>Análisis_concatenado</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO </t>
+  </si>
+  <si>
+    <t>Resolución</t>
+  </si>
+  <si>
+    <t>Plan de Retención</t>
+  </si>
+  <si>
     <t>Motivo, Breve explicación de la situación del estudiante, por la cual se solicita la Beca.</t>
   </si>
   <si>
-    <t>Revisión documentos</t>
-  </si>
-  <si>
-    <t>PPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRUPO </t>
-  </si>
-  <si>
-    <t>Análisis_concatenado</t>
-  </si>
-  <si>
     <t>Propuesta Resolución</t>
   </si>
   <si>
@@ -91,168 +94,579 @@
     <t>DOCUMENTOS</t>
   </si>
   <si>
-    <t>CACERES GUIÑEZ, CRISTOBAL GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUSTAVO ANDRÉ BUZIO CHÁVEZ </t>
-  </si>
-  <si>
-    <t>BELÉN MERCEDES NEIRA QUIROZ</t>
-  </si>
-  <si>
-    <t>22114077K</t>
+    <t>JOSE ALEXANDER MONTANO RUBILAR</t>
+  </si>
+  <si>
+    <t>Rhomy Belén Vásquez Simpson</t>
+  </si>
+  <si>
+    <t>HUERTA RUZ, SERGIO DANIEL</t>
+  </si>
+  <si>
+    <t>ESTRADA DURAN, EDUARDO JAVIER</t>
+  </si>
+  <si>
+    <t>Lukas Arnaldo Ramos Vasquez</t>
+  </si>
+  <si>
+    <t>HERNAN DANILO ESPINOZA VERA</t>
+  </si>
+  <si>
+    <t>Katherine Lucia Venegas González</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Esperanza Cabrera Levipán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor Hugo Valenzuela Catalán </t>
+  </si>
+  <si>
+    <t>Eduardo Rodrigo Fuentealba Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Andrés Castillo Tigre </t>
+  </si>
+  <si>
+    <t>Isidora Paz Jaramillo Aguilar</t>
+  </si>
+  <si>
+    <t>FIGUEROA SOTO, LUCAS FABIAN</t>
+  </si>
+  <si>
+    <t>LORENA DEL ROSARIO CIGNA GARRIDO</t>
+  </si>
+  <si>
+    <t>MORALES ZAMBRANO, GRISMAYLLERS ANDRELINA</t>
+  </si>
+  <si>
+    <t>Angie Tejos Urbina</t>
+  </si>
+  <si>
+    <t>GUERRA LATORRE, JENNIFER ALEJANDRA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ VICENCIO, ALEJANDRO ANTONIO</t>
+  </si>
+  <si>
+    <t>CALABRAN ZAPATA, NATANAEL OCTAVIO</t>
+  </si>
+  <si>
+    <t>CATALAN LOBOS, HENRY ANDRES</t>
+  </si>
+  <si>
+    <t>VALDES VALDES, ALFONSO</t>
+  </si>
+  <si>
+    <t>ACEVEDO MAYORGA, BRIAN ENRIQUE</t>
+  </si>
+  <si>
+    <t>TOLEDO MIRANDA, MICHAEL RANDAL</t>
+  </si>
+  <si>
+    <t>VICENTELO CRISOSTOMO, KATHERINE NATALIA</t>
+  </si>
+  <si>
+    <t>DIAZ MUÑOZ, JAVIERA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>CARRASCO CARRASCO, ANTONIO FERNANDO</t>
+  </si>
+  <si>
+    <t>Javiera Madeleine Farias Olivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe Gabriel Zepeda Valenzuela </t>
+  </si>
+  <si>
+    <t>20549765K</t>
+  </si>
+  <si>
+    <t>Sede Plaza Oeste</t>
+  </si>
+  <si>
+    <t>Sede San Joaquín</t>
+  </si>
+  <si>
+    <t>Sede Maipú</t>
+  </si>
+  <si>
+    <t>Sede Puente Alto</t>
+  </si>
+  <si>
+    <t>Sede San Bernardo</t>
+  </si>
+  <si>
+    <t>Sede Plaza Norte</t>
+  </si>
+  <si>
+    <t>Sede Antonio Varas</t>
+  </si>
+  <si>
+    <t>Sede Viña del Mar</t>
+  </si>
+  <si>
+    <t>Sede Valparaíso</t>
+  </si>
+  <si>
+    <t>Sede Alameda</t>
   </si>
   <si>
     <t>Sede Padre Alonso de Ovalle</t>
   </si>
   <si>
-    <t>Sede Alameda</t>
-  </si>
-  <si>
-    <t>Sede Puente Alto</t>
+    <t>AUDITORIA</t>
+  </si>
+  <si>
+    <t>Informática Biomédica</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN CONSTRUCCIÓN</t>
+  </si>
+  <si>
+    <t>PREPARADOR FÍSICO</t>
+  </si>
+  <si>
+    <t>Administración de Redes y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN GESTIÓN LOGÍSTICA</t>
+  </si>
+  <si>
+    <t>Auditoria</t>
+  </si>
+  <si>
+    <t>ingeniería en administración mención gestión de personas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analista programador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingeniería en gestión logística </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista programador </t>
+  </si>
+  <si>
+    <t>Gastronomía Internacional</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN SONIDO</t>
+  </si>
+  <si>
+    <t>TURISMO Y HOTELERÍA</t>
+  </si>
+  <si>
+    <t>DISEÑO GRÁFICO</t>
+  </si>
+  <si>
+    <t>Restauración de bienes patrimoniales</t>
+  </si>
+  <si>
+    <t>Comercio exterior</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>AUDITORÍA</t>
   </si>
   <si>
     <t>TURISMO DE AVENTURA</t>
   </si>
   <si>
-    <t>INGENIERÍA EN GESTIÓN LOGÍSTICA</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN INFORMÁTICA</t>
+    <t>ING. EN MECÁNICA AUTOM. Y AUTOTRÓNICA</t>
+  </si>
+  <si>
+    <t>TÉC. EN MAQUINARIA Y VEHÍCULOS PESADOS</t>
+  </si>
+  <si>
+    <t>ING.EN ADMINISTRACIÓN MENCIÓN MARKETING</t>
+  </si>
+  <si>
+    <t>ING.EN ADMIN.MENCIÓN GESTIÓN DE PERSONAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">técnico en administración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingeniería en electricidad y automatización industrial </t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>2023-01</t>
-  </si>
-  <si>
     <t>2024-01</t>
   </si>
   <si>
-    <t>2021-01</t>
+    <t>2020-1</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>2023-1</t>
+  </si>
+  <si>
+    <t>2024-1</t>
+  </si>
+  <si>
+    <t>2024/1</t>
+  </si>
+  <si>
+    <t>2022-1</t>
+  </si>
+  <si>
+    <t>2019-1</t>
+  </si>
+  <si>
+    <t>2020, 1er semestre</t>
+  </si>
+  <si>
+    <t>2023, 1ER SEMESTRE</t>
+  </si>
+  <si>
+    <t>2017-01</t>
+  </si>
+  <si>
+    <t>2020-01</t>
+  </si>
+  <si>
+    <t>2021,1ER SEMESTRE</t>
+  </si>
+  <si>
+    <t>2019-1ER SEMESTRE</t>
+  </si>
+  <si>
+    <t>2021_01</t>
+  </si>
+  <si>
+    <t>Beca 1 arancel</t>
   </si>
   <si>
     <t>Beca matrícula</t>
   </si>
   <si>
-    <t>Beca 1 arancel</t>
-  </si>
-  <si>
-    <t>Beca BNM</t>
-  </si>
-  <si>
     <t>Sin Beneficios</t>
   </si>
   <si>
+    <t>DFC</t>
+  </si>
+  <si>
+    <t>Gratuidad</t>
+  </si>
+  <si>
+    <t>DAJU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGES </t>
+  </si>
+  <si>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>Gratuidad 2024-01 / PGES 2023-01</t>
+  </si>
+  <si>
+    <t>DAJU / CAE</t>
+  </si>
+  <si>
     <t>DARE</t>
   </si>
   <si>
+    <t>BET 2024-02</t>
+  </si>
+  <si>
     <t>2024 - 01</t>
   </si>
   <si>
-    <t>Me dirijo a usted para solicitar la beca interna debido a la difícil situación económica que estoy atravesando. Por problemas familiares, tuve que dejar mi hogar y actualmente vivo como allegado en una casa. Trabajo de manera independiente, lo que me genera ingresos variables que oscilan entre $100,000 y $200,000 mensuales, dependiendo del mes.</t>
-  </si>
-  <si>
-    <t>A estudiante se le ha hecho complejo ir pagando las mensualidades, sin embargo, han logrado pagar hasta el mes de junio pero en julio el pago de la cuota de arancel más la matrícula se le hace imposible de costear, es por esto que solicitan ayuda con el monto de la cuota de arancel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudiante y su madre se encuentran en precaria situación socioeconómica, solventan sus gastos únicamente con ingresos provenientes de pensión de la madre y adicional, la alumna genera ingresos por su cuenta vendiendo "cachureos" como colera en ferias libres, con lo cual logra reunir escasamente el dinero para realizar el pago de sus aranceles. </t>
-  </si>
-  <si>
-    <t>Documentos validados por Trabajadora Social, quien informa lo siguiente:
-&gt;El estudiante reside junto a su madre.
-&gt;Los ingresos provienen del trabajo del estudiante y la pensión de vejez de la madre.
-&gt;El estudiante menciona en su carta que el poco ingreso que obtiene es destinado para sus necesidades básicas.
-&gt;Postulación FUAS: Octubre 2023.
-&gt;Renueva asignación de beca Nuevo Milenio.
-&gt;Se sugiere aceptar solicitud.</t>
-  </si>
-  <si>
-    <t>Documentos validados por Trabajadora Social, quien informa lo siguiente:
-&gt;El estudiante reside junto a su padre.
-&gt;Los ingresos económicos provienen del trabajo informal que ambos integrantes tienen.
-&gt;El padre se desempeña en la construcción y su trabajo no es constante, al igual que el trabajo del estudiante que trabaja de ayudante en Vega Central.
-&gt;Postulación FUAS: Octubre 2023.
-&gt;No registra información de asignación de beneficio.
+    <t>2023-02</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia extensa.
+&gt;Un integrante genera ingresos formales (pensión).
+&lt;El estudiante no encuentra empleo y recibe ayuda económica de su tío y abuela.
+&lt;Postulación FUAS: octubre de 2022.
+&gt;No presenta resultados MINEDUC.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear.
+&gt;Un integrante genera ingresos informales esporádicos, y otro genera ingresos formales.
+&gt;Ingresos insuficientes; el padre recientemente ha encontrado empleo.
+&gt;Ya fue asignado con gratuidad, por lo que no es posible una segunda asignación.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear.
+&gt;Un ingreso informal esporádico.
+&gt;Ingreso insuficiente para cubrir las necesidades básicas del hogar.
+&gt;Excede la duración nominal de gratuidad.
+&gt;Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia unipersonal.
+&gt;Un ingreso, se infiere que proviene de algún trabajo informal.
+&gt;Se encuentra cesante, sin pago de cotizaciones desde el mes de julio.
+&gt;Postulación FUAS: Abril 2016.
+&gt;No se realizó evaluación socioeconómica.
+&gt;Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental 
+&gt;Dos ingresos económicos (Formal y Pensión)
+&gt; El nivel de ingreso supera el decil socioeconómico correspondiente.
+&gt;Postulación FUAS: marzo 2024.
+&gt;No se realizó evaluación socioeconómica.
+&gt;Se sugiere rechazar la solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia unipersonal
+&gt;Un ingreso se infiere que proviene de trabajo informal
+&gt;09 abril 2024, Finiquito laboral
+&gt;Postulación Fuas: octubre 2022
+&gt;No presenta resultado MINEDUC
+&gt;Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental: 
+&gt;Se infiere que el único ingreso económico proviene del finiquito laboral. 
+&gt;Julio y agosto, no se registran cotizaciones pagadas. 
+ &gt;Intervención médica en abril(no se presentan documentos 
+ &gt;Postulación al FUAS: febrero de 2023, 
+&gt;Sin resultados registrados en el MINEDUC.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia unipersonal.
+&gt;Único ingreso, presumiblemente proveniente de aportes de terceros.
+&gt;El estudiante se encuentra cesante.
+&gt;Dado que ya fue asignada la gratuidad, no es posible otorgar una segunda asignación.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia extensa.
+&gt;Existe un ingreso formal.
+&gt;El cambio de trabajo ha generado una disminución en los ingresos.
+&gt;Postulación al FUAS :marzo de 2022.
+&gt;No se presenta resultado por parte de MINEDUC.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+Familia Nuclear
+&gt;Un ingreso, se infiere que proviene del finiquito laboral
+&gt;22 mayo 2024 Término de contrato laboral
+&gt;Excede duración nominal de gratuidad.
+&gt;se sugire aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+Familia unipersonal
+&gt;Un ingreso, se infiere que proviene de trabajo informal o aporte de terceros 
+&gt;24 abril 2024, Renuncia Laboral voluntaria 
+&gt;12 de junio 2024 accidente, Parte policial
+&gt;18 julio 2024 certificado médico, Esguince grado II, Tratamiento kinisiologia.
+&gt;Rut no tiene postulaciones en FUAS.
+&gt;Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&lt;Dos ingresos provenientes de trabajo informal esporádico y una pensión de orfandad.
+&gt;El 17 de enero de 2024,epicrisis, diagnóstico de trastorno de la articulación temporomaxilar.
+&gt;El 12 de junio de 2024, un certificado médico, diagnóstico de colitis ulcerosa.
+&gt;Renueva la gratuidad por un semestre en 2024, puede optar a la beca de arancel regulado.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+Familia extensa
+Un ingreso formal
+</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un ingreso,se infiere que proviene de act.  informal o del pago de una pensión.
+&gt;El 2 de febrero de 2024,  incendio forestal (FIBE).
+&gt;Se renueva la gratuidad por un semestre en 2024, Puede optar al arancel regulado.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia extensa.
+&gt;Un ingreso proveniente de trabajo informal.
+&gt;Insuficiencia monetaria en el grupo familiar.
+&gt;Postulación al FUAS: octubre de 2023.
+&gt;No se realizó evaluación socioeconómica.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear.
+&gt;Un ingreso formal.
+&gt;La hermana del estudiante se encuentra cursando estudios de educación superior.
+&gt;Postulación al FUAS: octubre de 2022.
+&gt;No se registra resultado por parte de MINEDUC.
+Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos  validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un ingreso proveniente de ahorros.
+&gt;El jefe de hogar se encuentra cesante.
+&gt;La estudiante ha sido beneficiada con gratuidad para el año 2024.
+&gt;Se sugiere rechazar la solicitud</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un integrante genera ingresos formales.
+&gt; Renueva gratuidad por un semestre en 2024, puede optar al arancel regulado.
+&gt;Se sugiere rechazar la solicitud, ya que no se presentaron los documentos mínimos requeridos, solo se entregó el RSH.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un ingreso  por pensión por invalidez y trabajo independiente.
+&gt;El 24 de mayo de 2023 se diagnosticó enfermedad de Ménière en el oído izquierdo, una patología crónica caracterizada por crisis de vértigo.
+&gt;El estudiante ha excedido la duración nominal de la gratuidad
+&gt; Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear.
+&gt;Un ingreso formal.
+&gt;El estudiante se encuentra cesante.
+&gt;Postulación al FUAS: noviembre de 2017.
+&gt;No se registran resultados por parte de MINEDUC.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+Familia unipersonal.
+Un ingreso, se infiere que proviene por aportes de terceros o trabajo informal.
+Estudiante cesante desde enero de 2024, sin pago de cotizaciones.
+Postulación al FUAS: febrero de 2024.
+No cumple con el requisito socioeconómico.
+Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+Familia unipersonal.
+Un ingreso, se infiere que proviene de aportes de terceros.
+El estudiante se encuentra sin empleo.
+Postulación al FUAS: noviembre de 2016.
+No postuló al FUAS y ha tenido uno o más semestres sin matrícula ni suspensión formal de estudios.
+Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un ingreso formal.
+&gt;Nivel de ingreso bajo, insuficiente para cubrir las necesidades básicas del hogar.
+&gt;El estudiante ha excedido la duración nominal de la gratuidad.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos  validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un ingreso formal.
+&gt;El 1 de julio de 2024, en neurología infantil, se diag. trastorno de interacción sensorial, trastorno del desarrollo del lenguaje y TDAH.
+&gt;El tratamiento de Terapia ocupacional y fonoaudiología.
+&gt;Postulación al FUAS: febrero de 2023.
+&gt;No se presentan resultados por parte de MINEDUC.
 &gt;Se sugiere aprobar solicitud</t>
   </si>
   <si>
-    <t>Documentos validados por Trabajadora Social, quien informa lo siguiente:
-&gt;El estudiante reside junto a su madre.
-&gt;Los ingresos provienen de la pensión por vejez.
-&gt;El 23 de febrero de 2024, el estudiante presenta diagnóstico de diabetes mellitus tipo 2 - diabetes mellitus no insulinodependiente.
-&gt;Postulación FUAS: Octubre 2023.
-&gt;No renueva gratuidad por haber excedido la duración del beneficio.
+    <t>Los documentos  validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear
+&gt;Un ingreso formal
+&gt;Diag. (neurologia) anomalidades de la marcha y de la movilidad por pie plano.
+&gt;Excede duración nominal del beneficio
 &gt;Se sugiere aprobar solicitud.</t>
   </si>
   <si>
-    <t>Grupo 9</t>
-  </si>
-  <si>
-    <t>La imagen muestra una carta de solicitud de beca. En ella, el remitente, Cristóbal Cáceres, explica su situación económica difícil y solicita apoyo para poder continuar con sus estudios en la carrera de Turismo Aventura en Duoc UC. Menciona sus ingresos y gastos, así como la ayuda que solía recibir de su madrina, quien ya no puede apoyarlo. La carta expresa un agradecimiento anticipado por la atención a su solicitud. La imagen presenta una "Cartola Hogar" del Registro Social de Hogares de Chile. Incluye información sobre la calificación socioeconómica de un hogar y detalles de sus integrantes. 
-Destaca lo siguiente:
-- Nombre del jefe de hogar y su RUN.
-- Dirección del hogar.
-- Calificación socioeconómica que varía entre 0% y 100%, indicando vulnerabilidad económica.
-- Información de los integrantes del hogar, incluyendo el parentesco.
-- Detalles sobre ingresos, como ingresos del trabajo, pensiones y capital.
-- Se menciona un total de ingresos del hogar.
-El documento también enfatiza la importancia de mantener la información actualizada. La imagen es una tarjeta de identificación de Chile. Muestra datos personales, incluyendo un nombre, fechas de nacimiento y de expiración, así como una fotografía. Si necesitas información específica sobre el contenido, por favor házmelo saber. La imagen muestra lo que parece ser un documento de identidad o una tarjeta. Tiene un diseño rectangular y podría contener información personal como un nombre, un código QR y un número de identificación. También se observa una huella digital. Si necesitas algo más específico sobre el contenido o uso de este tipo de documentos, puedo ayudarte. La imagen es un certificado de remuneraciones imponibles emitido por A.F.P. Modelo S.A. El documento confirma las remuneraciones imponibles de una persona, en este caso, de un individuo llamado Cristobal Gabriel Cáceres Guinez. Se detalla el período de las remuneraciones y se menciona la razón social del empleador, así como diferentes fondos relacionados. También indica que el certificado tiene validez por 35 días desde la fecha de emisión y da instrucciones para verificar su autenticidad en el sitio web correspondiente. La imagen muestra una consulta de la situación tributaria de un contribuyente en el sitio web del Servicio de Impuestos Internos (SII) de Chile. Incluye información sobre el RUT (Rol Único Tributario) del contribuyente, la fecha de la consulta, si presenta inicio de actividades y observaciones relacionadas con su situación tributaria. También menciona que el RUT consultado no tiene iniciación de actividades y proporciona instrucciones en caso de realizar transacciones. Además, advierte que esta consulta no constituye una certificación de comportamiento tributario. La imagen muestra una ficha curricular de un estudiante llamado Cristóbal Gabriel Cáceres Guíñez, quien está cursando la carrera de Turismo de Aventura en el Instituto Profesional DUOC UC. La ficha contiene información como el rut, el estado académico, el año de egreso, y detalle de las asignaturas del primer y segundo semestre, junto con sus notas y oportunidades para cada materia. Además, incluye datos como la dirección y el teléfono del estudiante. La imagen muestra una ficha curricular de un estudiante llamado Cristóbal Gabriel Cáceres Guinéz, quien está en la carrera de Turismo de Aventura en un instituto profesional. Se incluye información sobre su estado (vigente), año de egreso, dirección, y un resumen de las asignaturas que cursa en el tercer semestre junto con sus respectivas oportunidades de evaluación. También hay un apartado para materias optativas. No puedo identificar la imagen. Sin embargo, parece ser un documento de identidad. Si necesitas información específica, estaré encantado de ayudar con eso. La imagen muestra un documento que parece ser un tipo de identificación oficial o tarjeta. Contiene un código QR, un número alfanumérico y posiblemente datos personales, como un nombre. No puedo proporcionar detalles adicionales sobre el contenido específico del documento. La imagen muestra un certificado de pensión emitido por AFP Habitat. Contiene información sobre la solicitud de pensión de una persona llamada Jeannette Guinez Parra, indicando que está pensionada por vejez normal bajo la modalidad de retiro programado. También menciona la fecha de inicio de la pensión y el monto bruto correspondiente. Además, incluye un folio de formulario y detalles sobre la validez del certificado. La imagen muestra un "Certificado de Períodos Cotizados" emitido por AFP Habitat. Incluye la fecha de solicitud, el nombre de una persona y su RUT. El documento certifica la afiliación de la persona al Sistema Previsional con detalles sobre los meses y años cotizados, mostrando el resultado para cada mes desde 1986 hasta 1998, así como el total de meses aportados. También se incluye información de contacto y validez del certificado. La imagen muestra un documento que presenta información sobre los meses cotizados de dos tipos de trabajadores: Dependiente e Independiente. 
-Para el trabajador dependiente, se listan los años desde 1999 hasta 2006, indicando en cada mes si están cotizados (con "Sí") y se muestra un total de meses cotizados al final.
-Para el trabajador independiente, se incluye información de los años desde 2008 hasta 2017, también indicando los meses cotizados con "Sí" y un total al final.
-Además, hay un folio de informe y una instrucción sobre cómo verificar la validez del certificado. La imagen contiene un certificado, que parece tener un número de folio y detalles sobre su validez, además de un mensaje de saludo. También incluye instrucciones sobre cómo verificar su autenticidad a través de un sitio web y un número de contacto. Además, hay un total que indica 46, y la firma de un representante. La imagen muestra un documento de liquidación de pensiones de la AFP Habitat. Incluye información sobre el afiliado, Jeannette Guinez Parra, detalles sobre los haberes y descuentos aplicados, así como el monto total de la pensión neta a pagar, que es de 129.538. También se menciona la próxima fecha de pago y otros datos relacionados con el certificado. La imagen muestra un documento de liquidación de pensiones emitido por AFP Habitat, relacionado con el retiro programado por vejez. Incluye información personal de la afiliada, Jeanne Parra Guinez, así como detalles sobre su pensión, descuentos aplicados, la pensión neta a recibir, y la fecha del siguiente pago. También se menciona la cuenta afiliada y otros datos pertinentes para el proceso de liquidación. La imagen muestra un documento de liquidación de pensiones, específicamente un comprobante de pensión por vejez o retiro programado emitido por una AFP (Administradora de Fondos de Pensiones) en Chile. 
-Incluye información como el nombre y RUT de la persona, su dirección, detalles de los haberes y descuentos aplicados, así como el monto neto a recibir por pensión. También hay información sobre la cuenta del afiliado y la fecha de próximo pago. Además, menciona el monto total a pagar y los descuentos relacionados con salud y comisiones. La imagen es un documento que detalla la liquidación de pensiones de una persona. Incluye información como el nombre, dirección, RUT, y el detalle de la pensión mensual. También muestra los descuentos aplicados, el monto total a pagar y la fecha de pago. En resumen, es un comprobante relacionado con el retiro programado de una pensión. La imagen muestra un documento relacionado con la liquidación de pensiones, específicamente un certificado de pensión por vejez o retiro programado. Incluye detalles sobre la persona beneficiaria, como su nombre, RUT, dirección, y la comuna. También se detallan los montos de ingresos y descuentos, así como la pensión neta que se va a recibir. Además, se menciona la fecha de pago y la próxima fecha de pago. La información se presenta de manera formal y estructurada, típica de documentos de este tipo. La imagen muestra un documento relacionado con la liquidación de pensiones de una persona llamada Jeannette Guinez Parra. Incluye información como:
-- Datos personales: nombre, RUT, dirección y comuna.
-- Detalles sobre los haberes y descuentos:
-  - Haberes totales y la pensión del mes.
-  - Descuentos por salud y comisiones.
-- Información sobre la pensión neta y el monto a pagar.
-- Fechas de pago y la próxima fecha de pago.
-- Información adicional sobre la validez del documento.
-Es un recibo relacionado con el retiro programado de pensiones. La imagen es un documento de liquidación de pensiones que muestra información sobre el pago de una pensión de vejez por parte de una AFP (Administradora de Fondos de Pensiones) en Chile. Contiene datos como el nombre del afiliado, su RUT, dirección, monto de la pensión, descuentos aplicados, y la cantidad líquida a pagar. También menciona detalles del próximo pago y tiene un código de validación. La imagen proporciona información sobre la situación tributaria de una persona llamada Jeannette Nancy Guinez Parra, según registros del Servicio de Impuestos Internos (SII) de Chile. Se incluye el RUT, la fecha de consulta y detalles sobre su capacidad para declarar impuestos y su estado como contribuyente. También se menciona que no tiene documentos tributarios autorizados y se ofrece orientación sobre cómo proceder para resolver su situación tributaria. La imagen que has compartido está en blanco, así que no hay nada visible en ella. Si necesitas ayuda con otra cosa, házmelo saber. La imagen muestra un documento titulado "FICHA SOCIOECONÓMICA". Esta ficha contiene información personal sobre un postulante llamado Cristóbal Gabriel Cáceres Guíñez, incluyendo detalles como su RUT, dirección, teléfonos y correo electrónico. También contiene información sobre su grupo familiar, que incluye nombres, RUN, parentesco, fecha de nacimiento, nivel educativo, estado ocupacional, ingreso mensual y patrimonio, así como declaraciones sobre tenencia de vivienda y posesión de vehículos. Además, parece ser un documento relacionado con beneficios educativos. La imagen muestra un documento oficial relacionado con una evaluación socioeconómica. Contiene información sobre la situación familiar de un hogar, ingresos, y observaciones de un asistente social. Se mencionan detalles sobre la salud y el diagnóstico de un miembro de la familia, así como aspectos económicos y ocupacionales. También incluye firmas y fechas pertinentes al proceso de evaluación. No puedo ver la imagen que has compartido. Si me das una descripción, puedo intentar ayudarte con lo que necesites. La imagen muestra un documento titulado "Declaración de Gastos Mensuales" para la solicitud de gratuidad y beneficios educativos. En el documento se llenan los datos del postulante y del jefe de hogar, incluyendo nombre, RUT, teléfono, dirección y ocupación. Además, se detallan varios gastos familiares mensuales, como alimentación, arriendo, luz y agua, locomoción, combustible, teléfono fijo, teléfono móvil, internet y educación, con sus respectivos montos. La imagen muestra un documento que parece ser una solicitud o un formulario relacionado con "Gratuidad y Beneficios" en el contexto educativo. Contiene detalles sobre gastos en diferentes categorías como vestimenta, salud y otros, que suman un total de $650,000. También incluye observaciones y declaraciones sobre la fiabilidad de la información proporcionada, así como firmas de las personas involucradas y una nota sobre la necesidad de adjuntar recibos. No puedo ver la imagen. Si me das una descripción, puedo ayudarte con más información o responder preguntas sobre el contenido. La imagen contiene un documento del Ministerio de Salud que parece ser una receta médica. Incluye información sobre un paciente llamado Jeannette Nancy Gutiérrez, así como detalles de prescripción para medicamentos específicos, incluyendo Atorvastatina, Amlodipino y Metformina. También menciona las indicaciones de uso y la fecha del próximo despacho. La imagen muestra un recibo de consumo de servicios de agua, presumiblemente de una empresa pública. Incluye detalles como la información del cliente, las lecturas del medidor, el consumo total, los cargos por el servicio y la fecha de vencimiento del pago. También presenta un historial de consumo en forma de gráfico y varios detalles administrativos, como el número de resolución y otros datos relacionados con el servicio. La imagen está en blanco, por lo que no hay nada visible. Si necesitas información sobre otro tema o tipo de imagen, házmelo saber. La imagen muestra un recibo de compra relacionado con la adquisición de un medicamento. Aquí hay algunos detalles del documento:
-- **Nombre del beneficiario**: Cacerez Guinez Cristoval.
-- **Descripción del medicamento**: Nebido (concentración de 1000 mg en 4 ml).
-- **Cantidad**: 1 unidad.
-- **Valor**: 82.600.
-- **Total general**: 82.600.
-- **Dispensado por**: Estefani Sandoval.
-- **Fecha y hora de compra**: 12-07-2024 a las 16:13.
-El recibo parece ser de una institución pública, probablemente relacionada con servicios de salud.</t>
-  </si>
-  <si>
-    <t>La imagen que has compartido es un documento titulado "Cartola Hogar" del Registro Social de Hogares en Chile. Contiene información sobre la calificación socioeconómica de un hogar específico. Aquí hay un desglose de los elementos clave que se presentan en el documento:
-1. **Datos del Hogar**: Incluye el nombre de la persona a cargo (Belén Mercedes Neira Quiroz) y su RUN (RUT), así como la dirección del hogar.
-2. **Calificación Socioeconómica**: Se muestra un porcentaje (40%) que indica la vulnerabilidad socioeconómica del hogar, así como un rango de ingresos.
-3. **Integrantes del Hogar**: Se lista a los miembros del hogar, indicando su parentesco y características, como edades y dependencia.
-4. **Ingresos del hogar**: Se especifican las fuentes de ingreso (trabajo, pensiones, capital) y los montos correspondientes.
-5. **Datos Complementarios**: Se menciona que no hay datos adicionales que influyan en la calificación.
-El documento tiene un formato oficial y está dirigido a facilitar la evaluación de la situación socioeconómica de los hogares para acceder a beneficios sociales. La imagen es un certificado de cotizaciones de una AFP (Administradora de Fondos de Pensiones) llamado "Hábitat". Contiene información sobre la solicitud realizada por una persona llamada Rosa Amelia Quiroz Villegas, indicando que no se han registrado cotizaciones para el periodo de julio 2023 a julio 2024. También menciona detalles sobre la validez del certificado y un contacto para dudas. La imagen es un documento oficial de liquidación de pensiones del Instituto de Previsión Social de Chile. Contiene información sobre el pago de una pensión, incluyendo datos de la persona beneficiaria, montos, descuentos por salud, y la pensión neta a recibir. También menciona detalles como la dirección del afiliado, el número de cuenta, y la fecha de pago. Además, hay un folio para su validación en línea. La imagen muestra un documento de liquidación consolidada de pensiones del Instituto de Previsión Social. Detalla información sobre una persona (Rosa Amelia Quiroz Villegas), incluida su dirección y el monto de su pensión. También incluye secciones sobre haberes, descuentos, y el monto total a pagar. Además, se indica la fecha de pago y datos adicionales sobre la cuenta del afiliado. La imagen es un documento de liquidación de pensiones de la AFP Habitat. Incluye información sobre el beneficiario, como su nombre y RUT, así como detalles sobre los montos a pagar y deducciones. También menciona la fecha de pago, el monto de la pensión neta, y se señala un próximo pago. Además, contiene un número de folio y una advertencia sobre la validez del certificado. La imagen es un documento de liquidación de pensiones emitido por el Instituto de Previsión Social relacionado con la jubilación por vejez o retiro programado. Contiene información detallada sobre:
-- **Datos del afiliado**: Nombre, RUT, dirección y comuna.
-- **Detalles de haberes**: Incluye el monto de la pensión, el pago por el mes y un bono compensatorio con sus respectivos montos en pesos.
-- **Descuentos**: Desglose del descuento aplicado por concepto de salud y otros.
-- **Resultado final**: Muestra el total de haberes y descuentos, dando el monto neto de la pensión.
-- **Información de cheque** y **fecha de próximo pago**.
-Es un documento importante para quienes están en proceso de recibir su pensión. La imagen es un documento que corresponde a una liquidación consolidada de pensiones de un Instituto de Previsión Social. Incluye detalles sobre:
-1. **Datos Personales**: Nombre, RUT, dirección, comuna, y ciudad del afiliado.
-2. **Detalles de Haberes**: Información sobre la pensión mensual, la P.G.U. (Pensión Garantizada Universal) y otros bonos.
-3. **Totales de Haber**: Cantidad total de ingresos mensuales.
-4. **Detalles de Descuento**: Información sobre descuentos aplicados, como el descuento de salud.
-5. **Totales de Descuento**: Suma de los descuentos aplicados.
-6. **Pensión Neta**: Monto neto a recibir.
-7. **Información Adicional**: Nro. de cuenta, cheque, agencia y la fecha del próximo pago.
-Este tipo de documento se utiliza para informar a los beneficiarios sobre sus pensiones y deducciones aplicables. La imagen es un documento de liquidación de pensiones emitido por el Instituto de Previsión Social. Contiene información sobre el nombre y RUT de la persona beneficiaria, detalles sobre los haberes (ingresos) y descuentos aplicables a la pensión. También incluye información sobre la fecha de pago, el número de cuenta, la entidad bancaria y el próximo pago programado. Todo esto está relacionado con la pensión por vejez o retiro programado. La imagen es una liquidación consolidada de pensiones emitida por el Instituto de Previsión Social. Contiene información sobre el beneficiario, que es Rosa Amelia Quiroz Villegas, incluyendo su RUT, dirección y datos de su pensión. También detalla los haberes, descuentos, y el monto de la pensión neta a recibir. La fecha de pago es el 21 de febrero de 2024, y se menciona un próximo pago para el 20 de marzo de 2024. Además, hay información sobre una cuenta de afiliado y un cheque emitido. La imagen es un documento relacionado con la liquidación consolidada de pensiones emitido por el Instituto de Previsión Social. Incluye información sobre:
-- Datos personales de la persona afiliada, como nombre, RUT y dirección.
-- Detalles sobre los haberes, incluyendo montos y tipos de ingresos.
-- Descuentos aplicados y el total de descuentos.
-- Información sobre la pensión neta a recibir y el próximo pago programado.
-Parece ser un resumen de los beneficios de pensión para un afiliado específico. La imagen muestra un certificado de cotizaciones emitido por AFP PlanVital. El certificado está dirigido a una persona llamada Belén Mercedes Niera Quiroz y detalla información sobre sus cotizaciones de jubilación. Incluye datos como el periodo de las cotizaciones, el monto, el tipo de movimiento, y las categorías de fondos (A, B, C, D y E) relacionados con el riesgo de inversión. También indica que el certificado es válido por 30 días desde la fecha de emisión. La imagen parece ser una página en blanco con el logotipo de "PlanVital", que es una compañía de fondos de pensiones en Chile, y una referencia a "Generali", posiblemente indicando que es una empresa asociada o parte del grupo. No hay información adicional visible en la imagen. La imagen muestra un comprobante de pago. Incluye información como el número de cliente, el servicio (suministro eléctrico CGE), la fecha y hora del comprobante, un número de comprobante, el monto pagado y el estado del pago, que indica que fue "exitoso". La imagen es un recibo de pago que confirma que una transacción se ha realizado con éxito. Aquí están los detalles clave:
-- Monto pagado: $37,130.
-- Fecha y hora: 7 de junio de 2024 a las 23:03.
-- Hay una promoción que ofrece un descuento del 44% en smartphones.
-- Se incluyen instrucciones para consultar el estado del pago a través de una app o una sucursal virtual.
-- Se proporcionan detalles como el ID de pago, ID de ticket, medio de pago (Banco Estado) y código de transacción.
-Parece ser un mensaje de una empresa de telecomunicaciones, probablemente Movistar. La imagen muestra un comprobante de pago exitoso. Incluye detalles como el monto de $7.060, la fecha del 07-06-2024, un número de transacción, el número de cuenta, el nombre del titular (Mardones Benavides, Marisol), una dirección, y la empresa involucrada (Aguas Andinas). También hay un símbolo de verificación que indica que el pago fue realizado con éxito. La imagen es un formulario de constancia de información al paciente relacionado con el sistema de garantías explícitas en salud (GES) en Chile. Contiene datos sobre el prestador (un establecimiento de salud), antecedentes del paciente, información médica sobre diabetes mellitus tipo 2, así como detalles sobre la notificación y la toma de conocimiento por parte del paciente o su representante. También incluye advertencias sobre la necesidad de reclamar si no se cumplen las garantías de salud. La imagen muestra un formulario relacionado con la salud de un paciente, específicamente un documento de constancia de información al paciente bajo el sistema GES (Garantías Explícitas en Salud). Contiene datos del prestador de salud, información del paciente, antecedentes médicos, diagnóstico y detalles de contacto. También incluye una declaración sobre el derecho del paciente a acceder a las garantías de salud y un aviso importante sobre cómo proceder en caso de que no se cumplan dichas garantías.</t>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia unipersonal.
+&gt;Un ingreso formal proveniente del seguro de cesantía.
+&gt;El 31 de mayo de 2024 se emitió el finiquito laboral.
+&gt;Postulación al FUAS: octubre de 2023.
+&gt;No cumple con el requisito socioeconómico.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia extensa.
+&gt;Tres ingresos esporádicos de trabajos informales, un ingreso por pensión, y dos ingresos por trabajos formales.
+&gt;La familia se encuentra en condición de hacinamiento.
+&gt;El estudiante tiene asignada la Beca de Excelencia Técnica.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear.
+&gt;Un ingreso formal.
+&gt;Ingresos insuficientes para cubrir las necesidades básicas.
+&gt;El estudiante ha excedido la duración nominal del beneficio.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Grupo 12</t>
+  </si>
+  <si>
+    <t>Se rechaza, no cumple puntaje mínimo de PPE</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca arancel 2024-01 en cuota 5/5</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca arancel 2024-01 en cuota 4/5</t>
+  </si>
+  <si>
+    <t>Se rechaza, no cuenta con deuda en sistema</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca matrícula 2024-02</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca de arancel 2024-01 en cuota 5/5</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca de arancel 2024-02 en cuota 1/5</t>
+  </si>
+  <si>
+    <t>Falta información</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca de arancel 2024-02 en cuota 3/5</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca de arancel en PGES 2023-01 cuota 3/7</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca arancel en PGES 2024-01 en cuota 7/7</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca matrícula 2024-01</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca de arancel 2024-02 en cuota 2/5</t>
+  </si>
+  <si>
+    <t>De manera excepcional se aprueba al 100% beca de arancel en PGES 2023-02 cuotas de la 1/7 a la 7/7</t>
   </si>
   <si>
     <t>Rechazada</t>
@@ -261,40 +675,220 @@
     <t>Aprobada</t>
   </si>
   <si>
+    <t>La solicitud de beca se rechaza porque el PPE es menor que 0.5.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba de acuerdo a los criterios establecidos y con documentación validada.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba de acuerdo a la validación de documentos y la deuda existente.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que los documentos han sido validados por la Trabajadora Social y el estudiante tiene una deuda vencida mayor que 0.</t>
+  </si>
+  <si>
     <t>La solicitud de beca se rechaza debido a que el PPE es menor al mínimo requerido.</t>
   </si>
   <si>
-    <t>La solicitud de beca se aprueba dado que la deuda vencida es mayor que 0 y el PPE es superior a 0.5.</t>
-  </si>
-  <si>
-    <t>La solicitud de beca se rechaza debido a que no existe deuda que cubrir.</t>
-  </si>
-  <si>
-    <t>Monto no aplica</t>
+    <t>La solicitud de beca se rechaza debido a que el PPE es menor a 0.5.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza debido a que no hay deuda a cubrir.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que se cumplen los requisitos establecidos y la documentación ha sido validada por la Trabajadora Social.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que los documentos han sido validados por una Trabajadora Social y se cuenta con deuda vencida.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que el estudiante tiene deuda pendiente y los documentos han sido validados.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza debido a que la deuda vencida en el sistema es 0.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca es rechazada debido a que la deuda vencida es 0.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza debido a que la deuda vencida en el sistema es 0.0.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque, aunque la deuda vencida es mayor a 0, se sugiere rechazar la solicitud por las condiciones familiares y la reciente entrega de gratuidad.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza debido a que la deuda vencida es 0, no hay deuda a cubrir.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que la deuda vencida es mayor que 0 y los documentos han sido validados por una Trabajadora Social.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza debido a que el estudiante no cumple con el requisito mínimo de PPE.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que los documentos han sido validados por una Trabajadora Social y el estudiante tiene una deuda vencida mayor a 0.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza debido a que no existe deuda vencida en el sistema.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza debido a que la deuda vencida es 0.0 y no hay deuda a cubrir.</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Monto a determinar según normativa</t>
   </si>
   <si>
+    <t>Monto no aplicable</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>El estudiante solicita una beca debido a una difícil situación económica y tiene una deuda vencida.</t>
-  </si>
-  <si>
-    <t>El estudiante solicita ayuda debido a dificultades para cubrir la cuota de arancel a partir de julio.</t>
-  </si>
-  <si>
-    <t>El estudiante solicita una beca porque se encuentra en una situación socioeconómica precaria.</t>
-  </si>
-  <si>
-    <t>Carta de solicitud de beca; FICHA SOCIOECONÓMICA; Registro Social de Hogares</t>
+    <t>Monto no aplicable por rechazo</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca para cubrir su deuda, sin embargo, no cumple con el requisito mínimo en el PPE.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca 1 arancel debido a su situación económica y ha sido evaluado positivamente.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca 1 arancel debido a la insuficiencia de ingresos que enfrenta su familia.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca porque se encuentra cesante y requiere apoyo económico para continuar sus estudios.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca y presenta una deuda pendiente, sin embargo, no cumple con el requisito mínimo de PPE.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca para cubrir la matrícula, pero no cumple con el requisito mínimo de PPE.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca pero no tiene deuda pendiente.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca, pero no tiene deuda vencida.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca 1 arancel debido a su situación económica complicada tras un cambio laboral.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca 1 arancel debido a su situación financiera y ha cumplido con los requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca para cubrir su deuda vencida en el sistema.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca para cubrir aranceles, pero no presenta deuda vencida.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca porque requiere apoyo financiero, pero no presenta deuda pendiente.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita la beca 1 arancel pero no tiene deuda a cubrir.</t>
+  </si>
+  <si>
+    <t>El estudiante no cumple con el requisito mínimo de PPE.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca 1 arancel pero no tiene deudas a cubrir.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca porque se encuentra en una situación familiar complicada, pero recibió gratuidad para el año 2024 y hay recomendaciones de la Trabajadora Social de rechazar la solicitud.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca para cubrir una deuda que no existe.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca 1 arancel, pero no cumple con el requisito mínimo de PPE.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca debido a la situación de cesantía y su situación económica.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca para cubrir matrícula debido a su deuda vencida, pero no cumple con el requisito mínimo de PPE.</t>
+  </si>
+  <si>
+    <t>El estudiante no cumple con el requisito mínimo de PPE, que es menor a 0.5.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca porque proviene de una familia monoparental con un solo ingreso y presenta un nivel de ingreso bajo, insuficiente para cubrir las necesidades básicas del hogar.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca porque no tiene deuda que cubrir.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca porque tiene una deuda vencida y ha recibido beneficios anteriormente, pero no cumple con el requisito mínimo de PPE.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca matrícula pero no tiene deuda a cubrir.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca de matrícula pero no tiene deuda a cubrir.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca matrícula pero no cumple con el requisito de deuda.</t>
+  </si>
+  <si>
+    <t>El estudiante no tiene deuda vencida en el sistema.</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; FICHA SOCIOECONOMICA</t>
   </si>
   <si>
     <t>Carta de solicitud de beca; Cartola Hogar; Certificado de remuneraciones; FICHA SOCIOECONOMICA</t>
   </si>
   <si>
-    <t>Carta de solicitud de beca; Cartola Hogar; Comprobante de ingresos; Documentación de beneficios anteriores.</t>
+    <t>Carta de solicitud de beca; Cartola Hogar; Certificado de remuneraciones; Informe de Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Documentos validados por Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Documentos validados por la Trabajadora Social.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social; Informe de situación familiar.</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Informe de Trabajadora Social; Certificados médicos; Parte policial.</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Documentación acreditativa de situación financiera; Informe de Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Documentos de identificación; Informe de la Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Documentación validada por Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Informe de Trabajadora Social; FICHA SOCIOECONOMICA</t>
+  </si>
+  <si>
+    <t>RSH</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Ficha Socioeconómica; Documentos validados por Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; FICHA SOCIOECONOMICA; Documentos validados por Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Certificado de remuneraciones; FICHA SOCIOECONOMICA</t>
+  </si>
+  <si>
+    <t>Solicitud de beca; Informe de Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
   </si>
 </sst>
 </file>
@@ -652,13 +1246,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,233 +1328,2151 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>202845916</v>
+        <v>217583195</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="J2">
-        <v>87791</v>
+        <v>277700</v>
       </c>
       <c r="K2">
-        <v>316000</v>
+        <v>275000</v>
       </c>
       <c r="L2">
-        <v>121000</v>
+        <v>159000</v>
       </c>
       <c r="M2">
+        <v>0.092</v>
+      </c>
+      <c r="N2">
+        <v>4.1</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2">
+        <v>0.4194285714285714</v>
+      </c>
+      <c r="R2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>0.4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2">
-        <v>0.4785714285714285</v>
-      </c>
-      <c r="S2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
       <c r="V2" t="s">
+        <v>166</v>
+      </c>
+      <c r="W2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>176682396</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="W2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="J3">
-        <v>298000</v>
+        <v>581385</v>
       </c>
       <c r="K3">
-        <v>298000</v>
+        <v>301000</v>
       </c>
       <c r="L3">
         <v>159000</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7669</v>
       </c>
       <c r="N3">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="O3">
         <v>0.4</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3">
-        <v>0.5035714285714286</v>
+        <v>124</v>
+      </c>
+      <c r="Q3">
+        <v>0.6810107142857142</v>
+      </c>
+      <c r="R3" t="s">
+        <v>151</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" t="s">
-        <v>55</v>
+        <v>153</v>
+      </c>
+      <c r="T3">
+        <v>301000</v>
       </c>
       <c r="V3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W3" t="s">
+        <v>169</v>
+      </c>
+      <c r="X3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>177670413</v>
+      </c>
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="W3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>185383318</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>772503</v>
       </c>
       <c r="K4">
-        <v>310000</v>
+        <v>316000</v>
       </c>
       <c r="L4">
         <v>159000</v>
       </c>
       <c r="M4">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O4">
         <v>0.4</v>
       </c>
       <c r="P4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4">
+        <v>0.7107142857142856</v>
+      </c>
+      <c r="R4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" t="s">
+        <v>154</v>
+      </c>
+      <c r="T4">
+        <v>296403</v>
+      </c>
+      <c r="V4" t="s">
+        <v>167</v>
+      </c>
+      <c r="W4" t="s">
+        <v>170</v>
+      </c>
+      <c r="X4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>190385000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5">
+        <v>512000</v>
+      </c>
+      <c r="K5">
+        <v>256000</v>
+      </c>
+      <c r="L5">
+        <v>121000</v>
+      </c>
+      <c r="M5">
+        <v>0.61</v>
+      </c>
+      <c r="N5">
+        <v>5.4</v>
+      </c>
+      <c r="O5">
+        <v>0.4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5">
+        <v>0.6453571428571429</v>
+      </c>
+      <c r="R5" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" t="s">
+        <v>155</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>167</v>
+      </c>
+      <c r="W5" t="s">
+        <v>171</v>
+      </c>
+      <c r="X5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>204732531</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6">
+        <v>564000</v>
+      </c>
+      <c r="K6">
+        <v>282000</v>
+      </c>
+      <c r="L6">
+        <v>121000</v>
+      </c>
+      <c r="M6">
+        <v>0.24</v>
+      </c>
+      <c r="N6">
+        <v>4.9</v>
+      </c>
+      <c r="O6">
+        <v>0.8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6">
+        <v>0.335</v>
+      </c>
+      <c r="R6" t="s">
+        <v>151</v>
+      </c>
+      <c r="S6" t="s">
+        <v>152</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>166</v>
+      </c>
+      <c r="W6" t="s">
+        <v>172</v>
+      </c>
+      <c r="X6" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>189743017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7">
+        <v>1490000</v>
+      </c>
+      <c r="K7">
+        <v>298000</v>
+      </c>
+      <c r="L7">
+        <v>159000</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5.6</v>
+      </c>
+      <c r="O7">
+        <v>0.9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="R7" t="s">
+        <v>151</v>
+      </c>
+      <c r="S7" t="s">
+        <v>156</v>
+      </c>
+      <c r="T7">
+        <v>159000</v>
+      </c>
+      <c r="V7" t="s">
+        <v>166</v>
+      </c>
+      <c r="W7" t="s">
+        <v>173</v>
+      </c>
+      <c r="X7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>134530537</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>275000</v>
+      </c>
+      <c r="L8">
+        <v>159000</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="R8" t="s">
+        <v>151</v>
+      </c>
+      <c r="S8" t="s">
+        <v>155</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>166</v>
+      </c>
+      <c r="W8" t="s">
+        <v>174</v>
+      </c>
+      <c r="X8" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>205734074</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>298000</v>
+      </c>
+      <c r="L9">
+        <v>159000</v>
+      </c>
+      <c r="M9">
+        <v>0.71</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>0.4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9">
+        <v>0.6560714285714286</v>
+      </c>
+      <c r="R9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S9" t="s">
+        <v>155</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>166</v>
+      </c>
+      <c r="W9" t="s">
+        <v>174</v>
+      </c>
+      <c r="X9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>167416535</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10">
+        <v>281000</v>
+      </c>
+      <c r="K10">
+        <v>281000</v>
+      </c>
+      <c r="L10">
+        <v>121000</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>6.6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10">
+        <v>0.9857142857142858</v>
+      </c>
+      <c r="R10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S10" t="s">
+        <v>157</v>
+      </c>
+      <c r="T10">
+        <v>281000</v>
+      </c>
+      <c r="V10" t="s">
+        <v>167</v>
+      </c>
+      <c r="W10" t="s">
+        <v>175</v>
+      </c>
+      <c r="X10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>198185213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11">
+        <v>583215</v>
+      </c>
+      <c r="K11">
+        <v>298000</v>
+      </c>
+      <c r="L11">
+        <v>159000</v>
+      </c>
+      <c r="M11">
+        <v>0.67</v>
+      </c>
+      <c r="N11">
+        <v>4.9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11">
+        <v>0.8425</v>
+      </c>
+      <c r="R11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" t="s">
+        <v>157</v>
+      </c>
+      <c r="T11">
+        <v>298000</v>
+      </c>
+      <c r="V11" t="s">
+        <v>167</v>
+      </c>
+      <c r="W11" t="s">
+        <v>176</v>
+      </c>
+      <c r="X11" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>157759736</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12">
+        <v>281000</v>
+      </c>
+      <c r="K12">
+        <v>281000</v>
+      </c>
+      <c r="L12">
+        <v>121000</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>6.6</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12">
+        <v>0.9857142857142858</v>
+      </c>
+      <c r="R12" t="s">
+        <v>151</v>
+      </c>
+      <c r="S12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T12">
+        <v>281000</v>
+      </c>
+      <c r="V12" t="s">
+        <v>167</v>
+      </c>
+      <c r="W12" t="s">
+        <v>177</v>
+      </c>
+      <c r="X12" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>203800304</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>394000</v>
+      </c>
+      <c r="L13">
+        <v>159000</v>
+      </c>
+      <c r="M13">
+        <v>0.74</v>
+      </c>
+      <c r="N13">
+        <v>5.7</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13">
+        <v>0.6385714285714286</v>
+      </c>
+      <c r="R13" t="s">
+        <v>151</v>
+      </c>
+      <c r="S13" t="s">
+        <v>158</v>
+      </c>
+      <c r="T13">
+        <v>394000</v>
+      </c>
+      <c r="V13" t="s">
+        <v>166</v>
+      </c>
+      <c r="W13" t="s">
+        <v>174</v>
+      </c>
+      <c r="X13" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>196948872</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>354000</v>
+      </c>
+      <c r="L14">
+        <v>135000</v>
+      </c>
+      <c r="M14">
+        <v>0.96</v>
+      </c>
+      <c r="N14">
+        <v>6.3</v>
+      </c>
+      <c r="O14">
+        <v>0.4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14">
+        <v>0.7649999999999999</v>
+      </c>
+      <c r="R14" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" t="s">
+        <v>159</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>166</v>
+      </c>
+      <c r="W14" t="s">
+        <v>178</v>
+      </c>
+      <c r="X14" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>120678450</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>330000</v>
+      </c>
+      <c r="L15">
+        <v>135000</v>
+      </c>
+      <c r="N15">
+        <v>5.4</v>
+      </c>
+      <c r="O15">
+        <v>0.4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15">
+        <v>0.4928571428571429</v>
+      </c>
+      <c r="R15" t="s">
+        <v>151</v>
+      </c>
+      <c r="S15" t="s">
+        <v>155</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>166</v>
+      </c>
+      <c r="W15" t="s">
+        <v>179</v>
+      </c>
+      <c r="X15" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>201593417</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16">
+        <v>1570000</v>
+      </c>
+      <c r="K16">
+        <v>314000</v>
+      </c>
+      <c r="L16">
+        <v>159000</v>
+      </c>
+      <c r="N16">
+        <v>4.9</v>
+      </c>
+      <c r="O16">
+        <v>0.4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16">
+        <v>0.475</v>
+      </c>
+      <c r="R16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S16" t="s">
+        <v>152</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>166</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>199934473</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>245000</v>
+      </c>
+      <c r="L17">
+        <v>121000</v>
+      </c>
+      <c r="M17">
+        <v>0.8</v>
+      </c>
+      <c r="N17">
+        <v>5.6</v>
+      </c>
+      <c r="O17">
+        <v>0.5</v>
+      </c>
+      <c r="P17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q17">
+        <v>0.65</v>
+      </c>
+      <c r="R17" t="s">
+        <v>151</v>
+      </c>
+      <c r="S17" t="s">
+        <v>160</v>
+      </c>
+      <c r="T17">
+        <v>68605</v>
+      </c>
+      <c r="V17" t="s">
+        <v>166</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>174836191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18">
+        <v>2023</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18">
+        <v>660720</v>
+      </c>
+      <c r="K18">
+        <v>256000</v>
+      </c>
+      <c r="L18">
+        <v>121000</v>
+      </c>
+      <c r="M18">
+        <v>0.64</v>
+      </c>
+      <c r="N18">
+        <v>5.8</v>
+      </c>
+      <c r="O18">
+        <v>0.4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18">
+        <v>0.667142857142857</v>
+      </c>
+      <c r="R18" t="s">
+        <v>151</v>
+      </c>
+      <c r="S18" t="s">
+        <v>161</v>
+      </c>
+      <c r="T18">
+        <v>132140</v>
+      </c>
+      <c r="V18" t="s">
+        <v>166</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>299000</v>
+      </c>
+      <c r="L19">
+        <v>135000</v>
+      </c>
+      <c r="M19">
+        <v>0.86</v>
+      </c>
+      <c r="N19">
+        <v>5.2</v>
+      </c>
+      <c r="O19">
+        <v>0.4</v>
+      </c>
+      <c r="P19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19">
+        <v>0.7007142857142856</v>
+      </c>
+      <c r="R19" t="s">
+        <v>151</v>
+      </c>
+      <c r="S19" t="s">
+        <v>155</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>166</v>
+      </c>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>205803556</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20">
+        <v>1375000</v>
+      </c>
+      <c r="K20">
+        <v>275000</v>
+      </c>
+      <c r="L20">
+        <v>159000</v>
+      </c>
+      <c r="N20">
+        <v>5.3</v>
+      </c>
+      <c r="O20">
+        <v>0.7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20">
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="R20" t="s">
+        <v>151</v>
+      </c>
+      <c r="S20" t="s">
+        <v>152</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>166</v>
+      </c>
+      <c r="W20" t="s">
+        <v>173</v>
+      </c>
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>189308434</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21">
+        <v>1465791</v>
+      </c>
+      <c r="K21">
+        <v>316000</v>
+      </c>
+      <c r="L21">
+        <v>121000</v>
+      </c>
+      <c r="N21">
+        <v>6.4</v>
+      </c>
+      <c r="O21">
+        <v>0.4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q21">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="R21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S21" t="s">
+        <v>162</v>
+      </c>
+      <c r="T21">
+        <v>209451</v>
+      </c>
+      <c r="V21" t="s">
+        <v>167</v>
+      </c>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>153288275</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22">
+        <v>159000</v>
+      </c>
+      <c r="K22">
+        <v>310000</v>
+      </c>
+      <c r="L22">
+        <v>159000</v>
+      </c>
+      <c r="M22">
+        <v>0.03</v>
+      </c>
+      <c r="N22">
+        <v>5.6</v>
+      </c>
+      <c r="O22">
+        <v>0.8</v>
+      </c>
+      <c r="P22" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22">
+        <v>0.3075</v>
+      </c>
+      <c r="R22" t="s">
+        <v>151</v>
+      </c>
+      <c r="S22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T22">
+        <v>159000</v>
+      </c>
+      <c r="V22" t="s">
+        <v>166</v>
+      </c>
+      <c r="W22" t="s">
+        <v>173</v>
+      </c>
+      <c r="X22" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="B23">
+        <v>195007195</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23">
+        <v>1351425</v>
+      </c>
+      <c r="K23">
+        <v>301000</v>
+      </c>
+      <c r="L23">
+        <v>159000</v>
+      </c>
+      <c r="M23">
+        <v>0.05</v>
+      </c>
+      <c r="N23">
+        <v>3.6</v>
+      </c>
+      <c r="O23">
+        <v>0.4</v>
+      </c>
+      <c r="P23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23">
+        <v>0.4410714285714286</v>
+      </c>
+      <c r="R23" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" t="s">
+        <v>152</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>166</v>
+      </c>
+      <c r="W23" t="s">
+        <v>184</v>
+      </c>
+      <c r="X23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>207871230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24">
+        <v>266000</v>
+      </c>
+      <c r="K24">
+        <v>266000</v>
+      </c>
+      <c r="L24">
+        <v>121000</v>
+      </c>
+      <c r="M24">
+        <v>0.83</v>
+      </c>
+      <c r="N24">
+        <v>4.5</v>
+      </c>
+      <c r="O24">
+        <v>0.4</v>
+      </c>
+      <c r="P24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24">
+        <v>0.6682142857142856</v>
+      </c>
+      <c r="R24" t="s">
+        <v>151</v>
+      </c>
+      <c r="S24" t="s">
+        <v>157</v>
+      </c>
+      <c r="T24">
+        <v>266000</v>
+      </c>
+      <c r="V24" t="s">
+        <v>167</v>
+      </c>
+      <c r="W24" t="s">
+        <v>185</v>
+      </c>
+      <c r="X24" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>173400179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>298000</v>
+      </c>
+      <c r="L25">
+        <v>159000</v>
+      </c>
+      <c r="N25">
+        <v>5.7</v>
+      </c>
+      <c r="O25">
+        <v>0.4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25">
+        <v>0.5035714285714286</v>
+      </c>
+      <c r="R25" t="s">
+        <v>151</v>
+      </c>
+      <c r="S25" t="s">
+        <v>164</v>
+      </c>
+      <c r="T25">
+        <v>298000</v>
+      </c>
+      <c r="V25" t="s">
+        <v>166</v>
+      </c>
+      <c r="W25" t="s">
+        <v>178</v>
+      </c>
+      <c r="X25" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="R4">
-        <v>0.6653571428571429</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="B26">
+        <v>206311657</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26">
+        <v>269284</v>
+      </c>
+      <c r="K26">
+        <v>298</v>
+      </c>
+      <c r="L26">
+        <v>159</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>0.4</v>
+      </c>
+      <c r="P26" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26">
+        <v>0.4428571428571428</v>
+      </c>
+      <c r="R26" t="s">
+        <v>151</v>
+      </c>
+      <c r="S26" t="s">
+        <v>165</v>
+      </c>
+      <c r="T26">
+        <v>269284</v>
+      </c>
+      <c r="V26" t="s">
+        <v>166</v>
+      </c>
+      <c r="W26" t="s">
+        <v>172</v>
+      </c>
+      <c r="X26" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="T4" t="s">
+      <c r="B27">
+        <v>160946660</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>298000</v>
+      </c>
+      <c r="L27">
+        <v>159000</v>
+      </c>
+      <c r="M27">
+        <v>0.57</v>
+      </c>
+      <c r="N27">
+        <v>5.8</v>
+      </c>
+      <c r="O27">
+        <v>0.4</v>
+      </c>
+      <c r="P27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27">
+        <v>0.6496428571428572</v>
+      </c>
+      <c r="R27" t="s">
+        <v>151</v>
+      </c>
+      <c r="S27" t="s">
+        <v>156</v>
+      </c>
+      <c r="T27">
+        <v>159000</v>
+      </c>
+      <c r="V27" t="s">
+        <v>166</v>
+      </c>
+      <c r="W27" t="s">
+        <v>180</v>
+      </c>
+      <c r="X27" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>213526901</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>256000</v>
+      </c>
+      <c r="L28">
+        <v>121000</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>5.9</v>
+      </c>
+      <c r="O28">
+        <v>0.4</v>
+      </c>
+      <c r="P28" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q28">
+        <v>0.7607142857142857</v>
+      </c>
+      <c r="R28" t="s">
+        <v>151</v>
+      </c>
+      <c r="S28" t="s">
+        <v>156</v>
+      </c>
+      <c r="T28">
+        <v>121000</v>
+      </c>
+      <c r="V28" t="s">
+        <v>166</v>
+      </c>
+      <c r="W28" t="s">
+        <v>186</v>
+      </c>
+      <c r="X28" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="U4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>67</v>
+      <c r="B29">
+        <v>183408674</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>302000</v>
+      </c>
+      <c r="L29">
+        <v>159000</v>
+      </c>
+      <c r="M29">
+        <v>0.95</v>
+      </c>
+      <c r="N29">
+        <v>5.6</v>
+      </c>
+      <c r="O29">
+        <v>0.6</v>
+      </c>
+      <c r="P29" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29">
+        <v>0.6375</v>
+      </c>
+      <c r="R29" t="s">
+        <v>151</v>
+      </c>
+      <c r="S29" t="s">
+        <v>156</v>
+      </c>
+      <c r="T29">
+        <v>159000</v>
+      </c>
+      <c r="V29" t="s">
+        <v>166</v>
+      </c>
+      <c r="W29" t="s">
+        <v>187</v>
+      </c>
+      <c r="X29" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="T30">
+        <v>3851883</v>
+      </c>
+      <c r="V30" t="s">
+        <v>166</v>
+      </c>
+      <c r="W30" t="s">
+        <v>174</v>
+      </c>
+      <c r="X30" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/propuestas_resolucion.xlsx
+++ b/propuestas_resolucion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="213">
   <si>
     <t>Nombre completo</t>
   </si>
@@ -97,22 +97,292 @@
     <t>JOSE ALEXANDER MONTANO RUBILAR</t>
   </si>
   <si>
+    <t>Rhomy Belén Vásquez Simpson</t>
+  </si>
+  <si>
+    <t>HUERTA RUZ, SERGIO DANIEL</t>
+  </si>
+  <si>
+    <t>ESTRADA DURAN, EDUARDO JAVIER</t>
+  </si>
+  <si>
+    <t>Lukas Arnaldo Ramos Vasquez</t>
+  </si>
+  <si>
+    <t>HERNAN DANILO ESPINOZA VERA</t>
+  </si>
+  <si>
+    <t>Katherine Lucia Venegas González</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Esperanza Cabrera Levipán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor Hugo Valenzuela Catalán </t>
+  </si>
+  <si>
+    <t>Eduardo Rodrigo Fuentealba Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Andrés Castillo Tigre </t>
+  </si>
+  <si>
+    <t>Isidora Paz Jaramillo Aguilar</t>
+  </si>
+  <si>
+    <t>FIGUEROA SOTO, LUCAS FABIAN</t>
+  </si>
+  <si>
+    <t>LORENA DEL ROSARIO CIGNA GARRIDO</t>
+  </si>
+  <si>
+    <t>MORALES ZAMBRANO, GRISMAYLLERS ANDRELINA</t>
+  </si>
+  <si>
+    <t>Angie Tejos Urbina</t>
+  </si>
+  <si>
+    <t>GUERRA LATORRE, JENNIFER ALEJANDRA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ VICENCIO, ALEJANDRO ANTONIO</t>
+  </si>
+  <si>
+    <t>CALABRAN ZAPATA, NATANAEL OCTAVIO</t>
+  </si>
+  <si>
+    <t>CATALAN LOBOS, HENRY ANDRES</t>
+  </si>
+  <si>
+    <t>VALDES VALDES, ALFONSO</t>
+  </si>
+  <si>
+    <t>ACEVEDO MAYORGA, BRIAN ENRIQUE</t>
+  </si>
+  <si>
+    <t>TOLEDO MIRANDA, MICHAEL RANDAL</t>
+  </si>
+  <si>
+    <t>VICENTELO CRISOSTOMO, KATHERINE NATALIA</t>
+  </si>
+  <si>
+    <t>DIAZ MUÑOZ, JAVIERA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>CARRASCO CARRASCO, ANTONIO FERNANDO</t>
+  </si>
+  <si>
+    <t>Javiera Madeleine Farias Olivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe Gabriel Zepeda Valenzuela </t>
+  </si>
+  <si>
+    <t>20549765K</t>
+  </si>
+  <si>
     <t>Sede Plaza Oeste</t>
   </si>
   <si>
+    <t>Sede San Joaquín</t>
+  </si>
+  <si>
+    <t>Sede Maipú</t>
+  </si>
+  <si>
+    <t>Sede Puente Alto</t>
+  </si>
+  <si>
+    <t>Sede San Bernardo</t>
+  </si>
+  <si>
+    <t>Sede Plaza Norte</t>
+  </si>
+  <si>
+    <t>Sede Antonio Varas</t>
+  </si>
+  <si>
+    <t>Sede Viña del Mar</t>
+  </si>
+  <si>
+    <t>Sede Valparaíso</t>
+  </si>
+  <si>
+    <t>Sede Alameda</t>
+  </si>
+  <si>
+    <t>Sede Padre Alonso de Ovalle</t>
+  </si>
+  <si>
     <t>AUDITORIA</t>
   </si>
   <si>
+    <t>Informática Biomédica</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN CONSTRUCCIÓN</t>
+  </si>
+  <si>
+    <t>PREPARADOR FÍSICO</t>
+  </si>
+  <si>
+    <t>Administración de Redes y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN GESTIÓN LOGÍSTICA</t>
+  </si>
+  <si>
+    <t>Auditoria</t>
+  </si>
+  <si>
+    <t>ingeniería en administración mención gestión de personas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analista programador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingeniería en gestión logística </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista programador </t>
+  </si>
+  <si>
+    <t>Gastronomía Internacional</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN SONIDO</t>
+  </si>
+  <si>
+    <t>TURISMO Y HOTELERÍA</t>
+  </si>
+  <si>
+    <t>DISEÑO GRÁFICO</t>
+  </si>
+  <si>
+    <t>Restauración de bienes patrimoniales</t>
+  </si>
+  <si>
+    <t>Comercio exterior</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>AUDITORÍA</t>
+  </si>
+  <si>
+    <t>TURISMO DE AVENTURA</t>
+  </si>
+  <si>
+    <t>ING. EN MECÁNICA AUTOM. Y AUTOTRÓNICA</t>
+  </si>
+  <si>
+    <t>TÉC. EN MAQUINARIA Y VEHÍCULOS PESADOS</t>
+  </si>
+  <si>
+    <t>ING.EN ADMINISTRACIÓN MENCIÓN MARKETING</t>
+  </si>
+  <si>
+    <t>ING.EN ADMIN.MENCIÓN GESTIÓN DE PERSONAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">técnico en administración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingeniería en electricidad y automatización industrial </t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>2024-01</t>
   </si>
   <si>
+    <t>2020-1</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>2023-1</t>
+  </si>
+  <si>
+    <t>2024-1</t>
+  </si>
+  <si>
+    <t>2024/1</t>
+  </si>
+  <si>
+    <t>2022-1</t>
+  </si>
+  <si>
+    <t>2019-1</t>
+  </si>
+  <si>
+    <t>2020, 1er semestre</t>
+  </si>
+  <si>
+    <t>2023, 1ER SEMESTRE</t>
+  </si>
+  <si>
+    <t>2017-01</t>
+  </si>
+  <si>
+    <t>2020-01</t>
+  </si>
+  <si>
+    <t>2021,1ER SEMESTRE</t>
+  </si>
+  <si>
+    <t>2019-1ER SEMESTRE</t>
+  </si>
+  <si>
+    <t>2021_01</t>
+  </si>
+  <si>
     <t>Beca 1 arancel</t>
   </si>
   <si>
+    <t>Beca matrícula</t>
+  </si>
+  <si>
     <t>Sin Beneficios</t>
+  </si>
+  <si>
+    <t>DFC</t>
+  </si>
+  <si>
+    <t>Gratuidad</t>
+  </si>
+  <si>
+    <t>DAJU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGES </t>
+  </si>
+  <si>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>Gratuidad 2024-01 / PGES 2023-01</t>
+  </si>
+  <si>
+    <t>DAJU / CAE</t>
+  </si>
+  <si>
+    <t>DARE</t>
+  </si>
+  <si>
+    <t>BET 2024-02</t>
+  </si>
+  <si>
+    <t>2024 - 01</t>
+  </si>
+  <si>
+    <t>2023-02</t>
   </si>
   <si>
     <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
@@ -124,22 +394,420 @@
 &gt;Se sugiere aprobar la solicitud.</t>
   </si>
   <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear.
+&gt;Un integrante genera ingresos informales esporádicos, y otro genera ingresos formales.
+&gt;Ingresos insuficientes; el padre recientemente ha encontrado empleo.
+&gt;Ya fue asignado con gratuidad, por lo que no es posible una segunda asignación.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear.
+&gt;Un ingreso informal esporádico.
+&gt;Ingreso insuficiente para cubrir las necesidades básicas del hogar.
+&gt;Excede la duración nominal de gratuidad.
+&gt;Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia unipersonal.
+&gt;Un ingreso, se infiere que proviene de algún trabajo informal.
+&gt;Se encuentra cesante, sin pago de cotizaciones desde el mes de julio.
+&gt;Postulación FUAS: Abril 2016.
+&gt;No se realizó evaluación socioeconómica.
+&gt;Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental 
+&gt;Dos ingresos económicos (Formal y Pensión)
+&gt; El nivel de ingreso supera el decil socioeconómico correspondiente.
+&gt;Postulación FUAS: marzo 2024.
+&gt;No se realizó evaluación socioeconómica.
+&gt;Se sugiere rechazar la solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia unipersonal
+&gt;Un ingreso se infiere que proviene de trabajo informal
+&gt;09 abril 2024, Finiquito laboral
+&gt;Postulación Fuas: octubre 2022
+&gt;No presenta resultado MINEDUC
+&gt;Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental: 
+&gt;Se infiere que el único ingreso económico proviene del finiquito laboral. 
+&gt;Julio y agosto, no se registran cotizaciones pagadas. 
+ &gt;Intervención médica en abril(no se presentan documentos 
+ &gt;Postulación al FUAS: febrero de 2023, 
+&gt;Sin resultados registrados en el MINEDUC.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia unipersonal.
+&gt;Único ingreso, presumiblemente proveniente de aportes de terceros.
+&gt;El estudiante se encuentra cesante.
+&gt;Dado que ya fue asignada la gratuidad, no es posible otorgar una segunda asignación.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia extensa.
+&gt;Existe un ingreso formal.
+&gt;El cambio de trabajo ha generado una disminución en los ingresos.
+&gt;Postulación al FUAS :marzo de 2022.
+&gt;No se presenta resultado por parte de MINEDUC.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+Familia Nuclear
+&gt;Un ingreso, se infiere que proviene del finiquito laboral
+&gt;22 mayo 2024 Término de contrato laboral
+&gt;Excede duración nominal de gratuidad.
+&gt;se sugire aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+Familia unipersonal
+&gt;Un ingreso, se infiere que proviene de trabajo informal o aporte de terceros 
+&gt;24 abril 2024, Renuncia Laboral voluntaria 
+&gt;12 de junio 2024 accidente, Parte policial
+&gt;18 julio 2024 certificado médico, Esguince grado II, Tratamiento kinisiologia.
+&gt;Rut no tiene postulaciones en FUAS.
+&gt;Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&lt;Dos ingresos provenientes de trabajo informal esporádico y una pensión de orfandad.
+&gt;El 17 de enero de 2024,epicrisis, diagnóstico de trastorno de la articulación temporomaxilar.
+&gt;El 12 de junio de 2024, un certificado médico, diagnóstico de colitis ulcerosa.
+&gt;Renueva la gratuidad por un semestre en 2024, puede optar a la beca de arancel regulado.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+Familia extensa
+Un ingreso formal
+</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un ingreso,se infiere que proviene de act.  informal o del pago de una pensión.
+&gt;El 2 de febrero de 2024,  incendio forestal (FIBE).
+&gt;Se renueva la gratuidad por un semestre en 2024, Puede optar al arancel regulado.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia extensa.
+&gt;Un ingreso proveniente de trabajo informal.
+&gt;Insuficiencia monetaria en el grupo familiar.
+&gt;Postulación al FUAS: octubre de 2023.
+&gt;No se realizó evaluación socioeconómica.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear.
+&gt;Un ingreso formal.
+&gt;La hermana del estudiante se encuentra cursando estudios de educación superior.
+&gt;Postulación al FUAS: octubre de 2022.
+&gt;No se registra resultado por parte de MINEDUC.
+Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos  validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un ingreso proveniente de ahorros.
+&gt;El jefe de hogar se encuentra cesante.
+&gt;La estudiante ha sido beneficiada con gratuidad para el año 2024.
+&gt;Se sugiere rechazar la solicitud</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un integrante genera ingresos formales.
+&gt; Renueva gratuidad por un semestre en 2024, puede optar al arancel regulado.
+&gt;Se sugiere rechazar la solicitud, ya que no se presentaron los documentos mínimos requeridos, solo se entregó el RSH.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un ingreso  por pensión por invalidez y trabajo independiente.
+&gt;El 24 de mayo de 2023 se diagnosticó enfermedad de Ménière en el oído izquierdo, una patología crónica caracterizada por crisis de vértigo.
+&gt;El estudiante ha excedido la duración nominal de la gratuidad
+&gt; Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear.
+&gt;Un ingreso formal.
+&gt;El estudiante se encuentra cesante.
+&gt;Postulación al FUAS: noviembre de 2017.
+&gt;No se registran resultados por parte de MINEDUC.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+Familia unipersonal.
+Un ingreso, se infiere que proviene por aportes de terceros o trabajo informal.
+Estudiante cesante desde enero de 2024, sin pago de cotizaciones.
+Postulación al FUAS: febrero de 2024.
+No cumple con el requisito socioeconómico.
+Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+Familia unipersonal.
+Un ingreso, se infiere que proviene de aportes de terceros.
+El estudiante se encuentra sin empleo.
+Postulación al FUAS: noviembre de 2016.
+No postuló al FUAS y ha tenido uno o más semestres sin matrícula ni suspensión formal de estudios.
+Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un ingreso formal.
+&gt;Nivel de ingreso bajo, insuficiente para cubrir las necesidades básicas del hogar.
+&gt;El estudiante ha excedido la duración nominal de la gratuidad.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos  validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia monoparental.
+&gt;Un ingreso formal.
+&gt;El 1 de julio de 2024, en neurología infantil, se diag. trastorno de interacción sensorial, trastorno del desarrollo del lenguaje y TDAH.
+&gt;El tratamiento de Terapia ocupacional y fonoaudiología.
+&gt;Postulación al FUAS: febrero de 2023.
+&gt;No se presentan resultados por parte de MINEDUC.
+&gt;Se sugiere aprobar solicitud</t>
+  </si>
+  <si>
+    <t>Los documentos  validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear
+&gt;Un ingreso formal
+&gt;Diag. (neurologia) anomalidades de la marcha y de la movilidad por pie plano.
+&gt;Excede duración nominal del beneficio
+&gt;Se sugiere aprobar solicitud.</t>
+  </si>
+  <si>
+    <t>Los documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia unipersonal.
+&gt;Un ingreso formal proveniente del seguro de cesantía.
+&gt;El 31 de mayo de 2024 se emitió el finiquito laboral.
+&gt;Postulación al FUAS: octubre de 2023.
+&gt;No cumple con el requisito socioeconómico.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia extensa.
+&gt;Tres ingresos esporádicos de trabajos informales, un ingreso por pensión, y dos ingresos por trabajos formales.
+&gt;La familia se encuentra en condición de hacinamiento.
+&gt;El estudiante tiene asignada la Beca de Excelencia Técnica.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social, quien informa lo siguiente:
+&gt;Familia nuclear.
+&gt;Un ingreso formal.
+&gt;Ingresos insuficientes para cubrir las necesidades básicas.
+&gt;El estudiante ha excedido la duración nominal del beneficio.
+&gt;Se sugiere aprobar la solicitud.</t>
+  </si>
+  <si>
     <t>Grupo 12</t>
   </si>
   <si>
     <t>Se rechaza, no cumple puntaje mínimo de PPE</t>
   </si>
   <si>
+    <t>Se aprueba al 100% beca arancel 2024-01 en cuota 5/5</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca arancel 2024-01 en cuota 4/5</t>
+  </si>
+  <si>
+    <t>Se rechaza, no cuenta con deuda en sistema</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca matrícula 2024-02</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca de arancel 2024-01 en cuota 5/5</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca de arancel 2024-02 en cuota 1/5</t>
+  </si>
+  <si>
+    <t>Falta información</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca de arancel 2024-02 en cuota 3/5</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca de arancel en PGES 2023-01 cuota 3/7</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca arancel en PGES 2024-01 en cuota 7/7</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca matrícula 2024-01</t>
+  </si>
+  <si>
+    <t>Se aprueba al 100% beca de arancel 2024-02 en cuota 2/5</t>
+  </si>
+  <si>
+    <t>De manera excepcional se aprueba al 100% beca de arancel en PGES 2023-02 cuotas de la 1/7 a la 7/7</t>
+  </si>
+  <si>
     <t>Rechazada</t>
   </si>
   <si>
+    <t>Aprobada</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque el PPE es menor al requisito mínimo de 0.5.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba con una deuda vencida de 581385.0.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba con base en la validación de documentos y existencia de deuda vencida.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que los documentos han sido validados por una Trabajadora Social y el estudiante tiene una deuda vencida mayor que 0.</t>
+  </si>
+  <si>
     <t>La solicitud de beca se rechaza porque el estudiante no cumple con el requisito mínimo de PPE.</t>
   </si>
   <si>
+    <t>La solicitud de beca se rechaza porque no hay deuda a cubrir.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba porque los documentos han sido validados por una Trabajadora Social y el estudiante tiene una deuda vencida mayor que 0.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que el estudiante cumple con el requisito de PPE y tiene deuda vencida validada.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque el estudiante no tiene deuda a cubrir.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque el estudiante no tiene deuda vencida en el sistema.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque se sugiere rechazar la solicitud de la Trabajadora Social.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque la deuda vencida en el sistema es 0.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque el PPE es menor al requisito mínimo.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba con base en la validación de documentos y la deuda vencida.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque el PPE del estudiante es menor a 0.5.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque el PPE es menor a 0.5.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza debido a que la información proporcionada es insuficiente para realizar una evaluación adecuada.</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Monto a determinar según normativa</t>
+  </si>
+  <si>
     <t>El estudiante no cumple con el requisito mínimo de PPE.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca para cubrir su deuda vencida y ha sido ayudado por la Trabajadora Social quien considera su situación económica.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca porque su familia tiene un ingreso insuficiente para cubrir las necesidades básicas del hogar y ha excedido la duración nominal de gratuidad.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca debido a su situación económica, encontrándose actualmente cesante y con ingreso informal.</t>
+  </si>
+  <si>
+    <t>El estudiante no tiene deuda vencida que justifique la solicitud de beca.</t>
+  </si>
+  <si>
+    <t>El estudiante no tiene deuda vencida en el sistema.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca para cubrir su deuda vencida y ha sido evaluado positivamente por la Trabajadora Social.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca debido a su situación financiera y se sugiere aprobar la solicitud por su deuda.</t>
+  </si>
+  <si>
+    <t>El estudiante no tiene deuda a cubrir y, por lo tanto, no puede optar a la beca.</t>
+  </si>
+  <si>
+    <t>La Trabajadora Social sugiere rechazar la solicitud debido a la situación económica familiar.</t>
+  </si>
+  <si>
+    <t>El estudiante no tiene deuda a cubrir, por lo que no se aprueba la solicitud de beca.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca 1 arancel y tiene una deuda vencida.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca para cubrir su deuda vencida y tiene una situación socioeconómica vulnerable.</t>
+  </si>
+  <si>
+    <t>El estudiante no cumple con el requisito de deuda pendiente.</t>
+  </si>
+  <si>
+    <t>El estudiante no presenta información suficiente para evaluar su situación.</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Documentación validada por la Trabajadora Social; Certificado de remuneraciones; FICHA SOCIOECONOMICA</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; FICHA SOCIOECONOMICA; Informe de Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Documentos validados por Trabajadora Social; Informe de situación socioeconómica</t>
+  </si>
+  <si>
+    <t>Documentos validados por la Trabajadora Social; Informe de situación familiar; Postulación al FUAS.</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Cartola Hogar; Certificado de remuneraciones; FICHA SOCIOECONOMICA</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Cartola Hogar; Certificado de remuneraciones; FICHA SOCIOECONOMICA; Documentos validados por Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Ficha socioeconómica; Documentos médicos; Validación por Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; BECAS Y BENEFICIOS; Documentos validados por la Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; FICHA SOCIOECONOMICA</t>
+  </si>
+  <si>
+    <t>RSH</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Documentos validados por Trabajadora Social</t>
   </si>
 </sst>
 </file>
@@ -497,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,22 +1259,22 @@
         <v>217583195</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="J2">
         <v>277700</v>
@@ -627,34 +1295,2088 @@
         <v>0.5</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>0.4194285714285714</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
+        <v>166</v>
+      </c>
+      <c r="W2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>176682396</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3">
+        <v>581385</v>
+      </c>
+      <c r="K3">
+        <v>301000</v>
+      </c>
+      <c r="L3">
+        <v>159000</v>
+      </c>
+      <c r="M3">
+        <v>0.7669</v>
+      </c>
+      <c r="N3">
+        <v>5.3</v>
+      </c>
+      <c r="O3">
+        <v>0.4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3">
+        <v>0.6810107142857142</v>
+      </c>
+      <c r="R3" t="s">
+        <v>151</v>
+      </c>
+      <c r="S3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T3">
+        <v>301000</v>
+      </c>
+      <c r="V3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W3" t="s">
+        <v>169</v>
+      </c>
+      <c r="X3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>177670413</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4">
+        <v>772503</v>
+      </c>
+      <c r="K4">
+        <v>316000</v>
+      </c>
+      <c r="L4">
+        <v>159000</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4">
+        <v>0.4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4">
+        <v>0.7107142857142856</v>
+      </c>
+      <c r="R4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" t="s">
+        <v>154</v>
+      </c>
+      <c r="T4">
+        <v>296403</v>
+      </c>
+      <c r="V4" t="s">
+        <v>167</v>
+      </c>
+      <c r="W4" t="s">
+        <v>170</v>
+      </c>
+      <c r="X4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>190385000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5">
+        <v>512000</v>
+      </c>
+      <c r="K5">
+        <v>256000</v>
+      </c>
+      <c r="L5">
+        <v>121000</v>
+      </c>
+      <c r="M5">
+        <v>0.61</v>
+      </c>
+      <c r="N5">
+        <v>5.4</v>
+      </c>
+      <c r="O5">
+        <v>0.4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5">
+        <v>0.6453571428571429</v>
+      </c>
+      <c r="R5" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" t="s">
+        <v>155</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>167</v>
+      </c>
+      <c r="W5" t="s">
+        <v>171</v>
+      </c>
+      <c r="X5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>204732531</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6">
+        <v>564000</v>
+      </c>
+      <c r="K6">
+        <v>282000</v>
+      </c>
+      <c r="L6">
+        <v>121000</v>
+      </c>
+      <c r="M6">
+        <v>0.24</v>
+      </c>
+      <c r="N6">
+        <v>4.9</v>
+      </c>
+      <c r="O6">
+        <v>0.8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6">
+        <v>0.335</v>
+      </c>
+      <c r="R6" t="s">
+        <v>151</v>
+      </c>
+      <c r="S6" t="s">
+        <v>152</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>166</v>
+      </c>
+      <c r="W6" t="s">
+        <v>172</v>
+      </c>
+      <c r="X6" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>189743017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7">
+        <v>1490000</v>
+      </c>
+      <c r="K7">
+        <v>298000</v>
+      </c>
+      <c r="L7">
+        <v>159000</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5.6</v>
+      </c>
+      <c r="O7">
+        <v>0.9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="R7" t="s">
+        <v>151</v>
+      </c>
+      <c r="S7" t="s">
+        <v>156</v>
+      </c>
+      <c r="T7">
+        <v>159000</v>
+      </c>
+      <c r="V7" t="s">
+        <v>166</v>
+      </c>
+      <c r="W7" t="s">
+        <v>172</v>
+      </c>
+      <c r="X7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>134530537</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>275000</v>
+      </c>
+      <c r="L8">
+        <v>159000</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="R8" t="s">
+        <v>151</v>
+      </c>
+      <c r="S8" t="s">
+        <v>155</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>166</v>
+      </c>
+      <c r="W8" t="s">
+        <v>173</v>
+      </c>
+      <c r="X8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>205734074</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>298000</v>
+      </c>
+      <c r="L9">
+        <v>159000</v>
+      </c>
+      <c r="M9">
+        <v>0.71</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>0.4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9">
+        <v>0.6560714285714286</v>
+      </c>
+      <c r="R9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S9" t="s">
+        <v>155</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>166</v>
+      </c>
+      <c r="W9" t="s">
+        <v>173</v>
+      </c>
+      <c r="X9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>167416535</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10">
+        <v>281000</v>
+      </c>
+      <c r="K10">
+        <v>281000</v>
+      </c>
+      <c r="L10">
+        <v>121000</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>6.6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10">
+        <v>0.9857142857142858</v>
+      </c>
+      <c r="R10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S10" t="s">
+        <v>157</v>
+      </c>
+      <c r="T10">
+        <v>281000</v>
+      </c>
+      <c r="V10" t="s">
+        <v>167</v>
+      </c>
+      <c r="W10" t="s">
+        <v>174</v>
+      </c>
+      <c r="X10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>198185213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11">
+        <v>583215</v>
+      </c>
+      <c r="K11">
+        <v>298000</v>
+      </c>
+      <c r="L11">
+        <v>159000</v>
+      </c>
+      <c r="M11">
+        <v>0.67</v>
+      </c>
+      <c r="N11">
+        <v>4.9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11">
+        <v>0.8425</v>
+      </c>
+      <c r="R11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" t="s">
+        <v>157</v>
+      </c>
+      <c r="T11">
+        <v>298000</v>
+      </c>
+      <c r="V11" t="s">
+        <v>167</v>
+      </c>
+      <c r="W11" t="s">
+        <v>175</v>
+      </c>
+      <c r="X11" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="W2" t="s">
+      <c r="B12">
+        <v>157759736</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12">
+        <v>281000</v>
+      </c>
+      <c r="K12">
+        <v>281000</v>
+      </c>
+      <c r="L12">
+        <v>121000</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>6.6</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12">
+        <v>0.9857142857142858</v>
+      </c>
+      <c r="R12" t="s">
+        <v>151</v>
+      </c>
+      <c r="S12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T12">
+        <v>281000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="X2" t="s">
+      <c r="B13">
+        <v>203800304</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>394000</v>
+      </c>
+      <c r="L13">
+        <v>159000</v>
+      </c>
+      <c r="M13">
+        <v>0.74</v>
+      </c>
+      <c r="N13">
+        <v>5.7</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13">
+        <v>0.6385714285714286</v>
+      </c>
+      <c r="R13" t="s">
+        <v>151</v>
+      </c>
+      <c r="S13" t="s">
+        <v>158</v>
+      </c>
+      <c r="T13">
+        <v>394000</v>
+      </c>
+      <c r="V13" t="s">
+        <v>166</v>
+      </c>
+      <c r="W13" t="s">
+        <v>173</v>
+      </c>
+      <c r="X13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="B14">
+        <v>196948872</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>354000</v>
+      </c>
+      <c r="L14">
+        <v>135000</v>
+      </c>
+      <c r="M14">
+        <v>0.96</v>
+      </c>
+      <c r="N14">
+        <v>6.3</v>
+      </c>
+      <c r="O14">
+        <v>0.4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14">
+        <v>0.7649999999999999</v>
+      </c>
+      <c r="R14" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" t="s">
+        <v>159</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>166</v>
+      </c>
+      <c r="W14" t="s">
+        <v>176</v>
+      </c>
+      <c r="X14" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" t="s">
-        <v>38</v>
+      <c r="B15">
+        <v>120678450</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>330000</v>
+      </c>
+      <c r="L15">
+        <v>135000</v>
+      </c>
+      <c r="N15">
+        <v>5.4</v>
+      </c>
+      <c r="O15">
+        <v>0.4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15">
+        <v>0.4928571428571429</v>
+      </c>
+      <c r="R15" t="s">
+        <v>151</v>
+      </c>
+      <c r="S15" t="s">
+        <v>155</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>166</v>
+      </c>
+      <c r="W15" t="s">
+        <v>177</v>
+      </c>
+      <c r="X15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>201593417</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16">
+        <v>1570000</v>
+      </c>
+      <c r="K16">
+        <v>314000</v>
+      </c>
+      <c r="L16">
+        <v>159000</v>
+      </c>
+      <c r="N16">
+        <v>4.9</v>
+      </c>
+      <c r="O16">
+        <v>0.4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16">
+        <v>0.475</v>
+      </c>
+      <c r="R16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S16" t="s">
+        <v>152</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>166</v>
+      </c>
+      <c r="W16" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>199934473</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>245000</v>
+      </c>
+      <c r="L17">
+        <v>121000</v>
+      </c>
+      <c r="M17">
+        <v>0.8</v>
+      </c>
+      <c r="N17">
+        <v>5.6</v>
+      </c>
+      <c r="O17">
+        <v>0.5</v>
+      </c>
+      <c r="P17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q17">
+        <v>0.65</v>
+      </c>
+      <c r="R17" t="s">
+        <v>151</v>
+      </c>
+      <c r="S17" t="s">
+        <v>160</v>
+      </c>
+      <c r="T17">
+        <v>68605</v>
+      </c>
+      <c r="V17" t="s">
+        <v>166</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>174836191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18">
+        <v>2023</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18">
+        <v>660720</v>
+      </c>
+      <c r="K18">
+        <v>256000</v>
+      </c>
+      <c r="L18">
+        <v>121000</v>
+      </c>
+      <c r="M18">
+        <v>0.64</v>
+      </c>
+      <c r="N18">
+        <v>5.8</v>
+      </c>
+      <c r="O18">
+        <v>0.4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18">
+        <v>0.667142857142857</v>
+      </c>
+      <c r="R18" t="s">
+        <v>151</v>
+      </c>
+      <c r="S18" t="s">
+        <v>161</v>
+      </c>
+      <c r="T18">
+        <v>132140</v>
+      </c>
+      <c r="V18" t="s">
+        <v>166</v>
+      </c>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>299000</v>
+      </c>
+      <c r="L19">
+        <v>135000</v>
+      </c>
+      <c r="M19">
+        <v>0.86</v>
+      </c>
+      <c r="N19">
+        <v>5.2</v>
+      </c>
+      <c r="O19">
+        <v>0.4</v>
+      </c>
+      <c r="P19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19">
+        <v>0.7007142857142856</v>
+      </c>
+      <c r="R19" t="s">
+        <v>151</v>
+      </c>
+      <c r="S19" t="s">
+        <v>155</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>166</v>
+      </c>
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>205803556</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20">
+        <v>1375000</v>
+      </c>
+      <c r="K20">
+        <v>275000</v>
+      </c>
+      <c r="L20">
+        <v>159000</v>
+      </c>
+      <c r="N20">
+        <v>5.3</v>
+      </c>
+      <c r="O20">
+        <v>0.7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20">
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="R20" t="s">
+        <v>151</v>
+      </c>
+      <c r="S20" t="s">
+        <v>152</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>166</v>
+      </c>
+      <c r="W20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>189308434</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21">
+        <v>1465791</v>
+      </c>
+      <c r="K21">
+        <v>316000</v>
+      </c>
+      <c r="L21">
+        <v>121000</v>
+      </c>
+      <c r="N21">
+        <v>6.4</v>
+      </c>
+      <c r="O21">
+        <v>0.4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q21">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="R21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S21" t="s">
+        <v>162</v>
+      </c>
+      <c r="T21">
+        <v>209451</v>
+      </c>
+      <c r="V21" t="s">
+        <v>167</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>153288275</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22">
+        <v>159000</v>
+      </c>
+      <c r="K22">
+        <v>310000</v>
+      </c>
+      <c r="L22">
+        <v>159000</v>
+      </c>
+      <c r="M22">
+        <v>0.03</v>
+      </c>
+      <c r="N22">
+        <v>5.6</v>
+      </c>
+      <c r="O22">
+        <v>0.8</v>
+      </c>
+      <c r="P22" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22">
+        <v>0.3075</v>
+      </c>
+      <c r="R22" t="s">
+        <v>151</v>
+      </c>
+      <c r="S22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T22">
+        <v>159000</v>
+      </c>
+      <c r="V22" t="s">
+        <v>166</v>
+      </c>
+      <c r="W22" t="s">
+        <v>182</v>
+      </c>
+      <c r="X22" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>195007195</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23">
+        <v>1351425</v>
+      </c>
+      <c r="K23">
+        <v>301000</v>
+      </c>
+      <c r="L23">
+        <v>159000</v>
+      </c>
+      <c r="M23">
+        <v>0.05</v>
+      </c>
+      <c r="N23">
+        <v>3.6</v>
+      </c>
+      <c r="O23">
+        <v>0.4</v>
+      </c>
+      <c r="P23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23">
+        <v>0.4410714285714286</v>
+      </c>
+      <c r="R23" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" t="s">
+        <v>152</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>166</v>
+      </c>
+      <c r="W23" t="s">
+        <v>183</v>
+      </c>
+      <c r="X23" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>207871230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24">
+        <v>266000</v>
+      </c>
+      <c r="K24">
+        <v>266000</v>
+      </c>
+      <c r="L24">
+        <v>121000</v>
+      </c>
+      <c r="M24">
+        <v>0.83</v>
+      </c>
+      <c r="N24">
+        <v>4.5</v>
+      </c>
+      <c r="O24">
+        <v>0.4</v>
+      </c>
+      <c r="P24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24">
+        <v>0.6682142857142856</v>
+      </c>
+      <c r="R24" t="s">
+        <v>151</v>
+      </c>
+      <c r="S24" t="s">
+        <v>157</v>
+      </c>
+      <c r="T24">
+        <v>266000</v>
+      </c>
+      <c r="V24" t="s">
+        <v>167</v>
+      </c>
+      <c r="W24" t="s">
+        <v>171</v>
+      </c>
+      <c r="X24" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>173400179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>298000</v>
+      </c>
+      <c r="L25">
+        <v>159000</v>
+      </c>
+      <c r="N25">
+        <v>5.7</v>
+      </c>
+      <c r="O25">
+        <v>0.4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25">
+        <v>0.5035714285714286</v>
+      </c>
+      <c r="R25" t="s">
+        <v>151</v>
+      </c>
+      <c r="S25" t="s">
+        <v>164</v>
+      </c>
+      <c r="T25">
+        <v>298000</v>
+      </c>
+      <c r="V25" t="s">
+        <v>166</v>
+      </c>
+      <c r="W25" t="s">
+        <v>173</v>
+      </c>
+      <c r="X25" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>206311657</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26">
+        <v>269284</v>
+      </c>
+      <c r="K26">
+        <v>298</v>
+      </c>
+      <c r="L26">
+        <v>159</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>0.4</v>
+      </c>
+      <c r="P26" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26">
+        <v>0.4428571428571428</v>
+      </c>
+      <c r="R26" t="s">
+        <v>151</v>
+      </c>
+      <c r="S26" t="s">
+        <v>165</v>
+      </c>
+      <c r="T26">
+        <v>269284</v>
+      </c>
+      <c r="V26" t="s">
+        <v>166</v>
+      </c>
+      <c r="W26" t="s">
+        <v>172</v>
+      </c>
+      <c r="X26" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>160946660</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>298000</v>
+      </c>
+      <c r="L27">
+        <v>159000</v>
+      </c>
+      <c r="M27">
+        <v>0.57</v>
+      </c>
+      <c r="N27">
+        <v>5.8</v>
+      </c>
+      <c r="O27">
+        <v>0.4</v>
+      </c>
+      <c r="P27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27">
+        <v>0.6496428571428572</v>
+      </c>
+      <c r="R27" t="s">
+        <v>151</v>
+      </c>
+      <c r="S27" t="s">
+        <v>156</v>
+      </c>
+      <c r="T27">
+        <v>159000</v>
+      </c>
+      <c r="V27" t="s">
+        <v>166</v>
+      </c>
+      <c r="W27" t="s">
+        <v>173</v>
+      </c>
+      <c r="X27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>213526901</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>256000</v>
+      </c>
+      <c r="L28">
+        <v>121000</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>5.9</v>
+      </c>
+      <c r="O28">
+        <v>0.4</v>
+      </c>
+      <c r="P28" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q28">
+        <v>0.7607142857142857</v>
+      </c>
+      <c r="R28" t="s">
+        <v>151</v>
+      </c>
+      <c r="S28" t="s">
+        <v>156</v>
+      </c>
+      <c r="T28">
+        <v>121000</v>
+      </c>
+      <c r="V28" t="s">
+        <v>166</v>
+      </c>
+      <c r="W28" t="s">
+        <v>173</v>
+      </c>
+      <c r="X28" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>183408674</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>302000</v>
+      </c>
+      <c r="L29">
+        <v>159000</v>
+      </c>
+      <c r="M29">
+        <v>0.95</v>
+      </c>
+      <c r="N29">
+        <v>5.6</v>
+      </c>
+      <c r="O29">
+        <v>0.6</v>
+      </c>
+      <c r="P29" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29">
+        <v>0.6375</v>
+      </c>
+      <c r="R29" t="s">
+        <v>151</v>
+      </c>
+      <c r="S29" t="s">
+        <v>156</v>
+      </c>
+      <c r="T29">
+        <v>159000</v>
+      </c>
+      <c r="V29" t="s">
+        <v>166</v>
+      </c>
+      <c r="W29" t="s">
+        <v>173</v>
+      </c>
+      <c r="X29" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="T30">
+        <v>3851883</v>
+      </c>
+      <c r="V30" t="s">
+        <v>166</v>
+      </c>
+      <c r="W30" t="s">
+        <v>184</v>
+      </c>
+      <c r="X30" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/propuestas_resolucion.xlsx
+++ b/propuestas_resolucion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="213">
   <si>
     <t>Nombre completo</t>
   </si>
@@ -678,52 +678,58 @@
     <t>La solicitud de beca se rechaza porque el PPE es menor al requisito mínimo de 0.5.</t>
   </si>
   <si>
-    <t>La solicitud de beca se aprueba con una deuda vencida de 581385.0.</t>
-  </si>
-  <si>
-    <t>La solicitud de beca se aprueba con base en la validación de documentos y existencia de deuda vencida.</t>
+    <t>La solicitud de beca se aprueba porque los documentos han sido validados por la Trabajadora Social y el estudiante tiene una deuda vencida mayor que 0.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que el estudiante tiene deuda vencida y los documentos han sido validados por la Trabajadora Social.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba porque los documentos han sido validados y el estudiante tiene una deuda vencida mayor que 0.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque el estudiante no cumple con el requisito mínimo de PPE.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque no hay deuda a cubrir en el sistema.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque no hay deuda a cubrir.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que el estudiante cumple con los requisitos necesarios y tiene una deuda vencida.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba tras la validación de documentos por la Trabajadora Social y la existencia de deuda vencida.</t>
   </si>
   <si>
     <t>La solicitud de beca se aprueba debido a que los documentos han sido validados por una Trabajadora Social y el estudiante tiene una deuda vencida mayor que 0.</t>
   </si>
   <si>
-    <t>La solicitud de beca se rechaza porque el estudiante no cumple con el requisito mínimo de PPE.</t>
-  </si>
-  <si>
-    <t>La solicitud de beca se rechaza porque no hay deuda a cubrir.</t>
-  </si>
-  <si>
-    <t>La solicitud de beca se aprueba porque los documentos han sido validados por una Trabajadora Social y el estudiante tiene una deuda vencida mayor que 0.</t>
-  </si>
-  <si>
-    <t>La solicitud de beca se aprueba debido a que el estudiante cumple con el requisito de PPE y tiene deuda vencida validada.</t>
-  </si>
-  <si>
     <t>La solicitud de beca se rechaza porque el estudiante no tiene deuda a cubrir.</t>
   </si>
   <si>
     <t>La solicitud de beca se rechaza porque el estudiante no tiene deuda vencida en el sistema.</t>
   </si>
   <si>
-    <t>La solicitud de beca se rechaza porque se sugiere rechazar la solicitud de la Trabajadora Social.</t>
+    <t>La solicitud de beca se rechaza porque el estudiante no tiene deuda vencida a cubrir.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque el PPE es menor a 0.5.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque, a pesar de que el PPE es mayor a 0.5, la Trabajadora Social sugiere rechazar la solicitud debido a la situación económica familiar.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se aprueba debido a que el estudiante cumple con los requisitos establecidos y presenta una deuda vencida superior a 0.</t>
   </si>
   <si>
     <t>La solicitud de beca se rechaza porque la deuda vencida en el sistema es 0.</t>
   </si>
   <si>
-    <t>La solicitud de beca se rechaza porque el PPE es menor al requisito mínimo.</t>
-  </si>
-  <si>
-    <t>La solicitud de beca se aprueba con base en la validación de documentos y la deuda vencida.</t>
-  </si>
-  <si>
-    <t>La solicitud de beca se rechaza porque el PPE del estudiante es menor a 0.5.</t>
-  </si>
-  <si>
-    <t>La solicitud de beca se rechaza porque el PPE es menor a 0.5.</t>
-  </si>
-  <si>
-    <t>La solicitud de beca se rechaza debido a que la información proporcionada es insuficiente para realizar una evaluación adecuada.</t>
+    <t>La solicitud de beca se rechaza porque no hay deuda vencida que cubrir.</t>
+  </si>
+  <si>
+    <t>La solicitud de beca se rechaza porque no hay suficiente información para procesar la solicitud.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -735,79 +741,73 @@
     <t>El estudiante no cumple con el requisito mínimo de PPE.</t>
   </si>
   <si>
-    <t>El estudiante solicita una beca para cubrir su deuda vencida y ha sido ayudado por la Trabajadora Social quien considera su situación económica.</t>
-  </si>
-  <si>
-    <t>El estudiante solicita una beca porque su familia tiene un ingreso insuficiente para cubrir las necesidades básicas del hogar y ha excedido la duración nominal de gratuidad.</t>
-  </si>
-  <si>
-    <t>El estudiante solicita una beca debido a su situación económica, encontrándose actualmente cesante y con ingreso informal.</t>
-  </si>
-  <si>
-    <t>El estudiante no tiene deuda vencida que justifique la solicitud de beca.</t>
+    <t>El estudiante solicita una beca porque su situación económica actual es complicada, con ingresos insuficientes en su familia.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca porque excede la duración nominal de gratuidad y tiene un ingreso insuficiente para cubrir las necesidades básicas del hogar.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca por su situación económica que incluye cesantía y un ingreso informal.</t>
+  </si>
+  <si>
+    <t>El estudiante no tiene deuda vencida registrada.</t>
   </si>
   <si>
     <t>El estudiante no tiene deuda vencida en el sistema.</t>
   </si>
   <si>
-    <t>El estudiante solicita una beca para cubrir su deuda vencida y ha sido evaluado positivamente por la Trabajadora Social.</t>
-  </si>
-  <si>
-    <t>El estudiante solicita una beca debido a su situación financiera y se sugiere aprobar la solicitud por su deuda.</t>
-  </si>
-  <si>
-    <t>El estudiante no tiene deuda a cubrir y, por lo tanto, no puede optar a la beca.</t>
-  </si>
-  <si>
-    <t>La Trabajadora Social sugiere rechazar la solicitud debido a la situación económica familiar.</t>
-  </si>
-  <si>
-    <t>El estudiante no tiene deuda a cubrir, por lo que no se aprueba la solicitud de beca.</t>
-  </si>
-  <si>
-    <t>El estudiante solicita una beca 1 arancel y tiene una deuda vencida.</t>
-  </si>
-  <si>
-    <t>El estudiante solicita una beca para cubrir su deuda vencida y tiene una situación socioeconómica vulnerable.</t>
-  </si>
-  <si>
-    <t>El estudiante no cumple con el requisito de deuda pendiente.</t>
-  </si>
-  <si>
-    <t>El estudiante no presenta información suficiente para evaluar su situación.</t>
-  </si>
-  <si>
-    <t>Carta de solicitud de beca; Documentación validada por la Trabajadora Social; Certificado de remuneraciones; FICHA SOCIOECONOMICA</t>
-  </si>
-  <si>
-    <t>Carta de solicitud de beca; FICHA SOCIOECONOMICA; Informe de Trabajadora Social</t>
-  </si>
-  <si>
-    <t>Carta de solicitud de beca; Documentos validados por Trabajadora Social; Informe de situación socioeconómica</t>
-  </si>
-  <si>
-    <t>Documentos validados por la Trabajadora Social; Informe de situación familiar; Postulación al FUAS.</t>
+    <t>El estudiante solicita una beca para cubrir su deuda vencida, y se ha validado su situación por la Trabajadora Social.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca porque tiene una deuda vencida y cumple con los requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca porque presenta una situación de deuda y ha sido evaluado positivamente.</t>
+  </si>
+  <si>
+    <t>El estudiante no tiene deuda a cubrir.</t>
+  </si>
+  <si>
+    <t>El estudiante no cumple con el requisito de tener deuda vencida.</t>
+  </si>
+  <si>
+    <t>El estudiante se encuentra en una situación económica desafiante, pero se sugiere rechazar la solicitud por recomendación de la Trabajadora Social.</t>
+  </si>
+  <si>
+    <t>El estudiante tiene deuda vencida de 0.0 en el sistema, lo que impide la aprobación de la beca.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca para ayudar a cubrir la deuda vencida registrada en el sistema.</t>
+  </si>
+  <si>
+    <t>El estudiante solicita una beca 1 arancel debido a su situación económica vulnerable y la validación de documentos por parte de Trabajadora Social.</t>
+  </si>
+  <si>
+    <t>El estudiante no tiene deuda vencida, lo que impide la aprobación de la beca.</t>
+  </si>
+  <si>
+    <t>No se cumple con los requisitos necesarios debido a la falta de datos fundamentales.</t>
   </si>
   <si>
     <t>Carta de solicitud de beca; Cartola Hogar; Certificado de remuneraciones; FICHA SOCIOECONOMICA</t>
   </si>
   <si>
-    <t>Carta de solicitud de beca; Cartola Hogar; Certificado de remuneraciones; FICHA SOCIOECONOMICA; Documentos validados por Trabajadora Social</t>
-  </si>
-  <si>
-    <t>Carta de solicitud de beca; Ficha socioeconómica; Documentos médicos; Validación por Trabajadora Social</t>
-  </si>
-  <si>
-    <t>Carta de solicitud de beca; BECAS Y BENEFICIOS; Documentos validados por la Trabajadora Social</t>
+    <t>Carta de solicitud de beca; Cartola Hogar; Certificado de remuneraciones; Documentación validada por Trabajadora Social</t>
   </si>
   <si>
     <t>Carta de solicitud de beca; FICHA SOCIOECONOMICA</t>
   </si>
   <si>
+    <t>Carta de solicitud de beca; Informe de la Trabajadora Social; Documentación que acredita ingresos; FICHA SOCIOECONOMICA</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; FICHA SOCIOECONOMICA; Certificado médico; Parte policial; Informe de la Trabajadora Social</t>
+  </si>
+  <si>
+    <t>Carta de solicitud de beca; Informe de la Trabajadora Social; Documentos de identidad; Comprobante de ingresos; Certificados de beneficios anteriores</t>
+  </si>
+  <si>
     <t>RSH</t>
-  </si>
-  <si>
-    <t>Carta de solicitud de beca; Documentos validados por Trabajadora Social</t>
   </si>
 </sst>
 </file>
@@ -1316,13 +1316,13 @@
         <v>168</v>
       </c>
       <c r="X2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z2" t="s">
         <v>187</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -1393,13 +1393,13 @@
         <v>169</v>
       </c>
       <c r="X3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Z3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1470,13 +1470,13 @@
         <v>170</v>
       </c>
       <c r="X4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Z4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1547,13 +1547,13 @@
         <v>171</v>
       </c>
       <c r="X5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Z5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1624,13 +1624,13 @@
         <v>172</v>
       </c>
       <c r="X6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z6" t="s">
         <v>187</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1701,13 +1701,13 @@
         <v>172</v>
       </c>
       <c r="X7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z7" t="s">
         <v>187</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1778,13 +1778,13 @@
         <v>173</v>
       </c>
       <c r="X8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1852,16 +1852,16 @@
         <v>166</v>
       </c>
       <c r="W9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z9" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1926,16 +1926,16 @@
         <v>167</v>
       </c>
       <c r="W10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Z10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2000,16 +2000,16 @@
         <v>167</v>
       </c>
       <c r="W11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2070,6 +2070,21 @@
       <c r="T12">
         <v>281000</v>
       </c>
+      <c r="V12" t="s">
+        <v>167</v>
+      </c>
+      <c r="W12" t="s">
+        <v>177</v>
+      </c>
+      <c r="X12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
@@ -2136,16 +2151,16 @@
         <v>166</v>
       </c>
       <c r="W13" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="X13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2213,16 +2228,16 @@
         <v>166</v>
       </c>
       <c r="W14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="X14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Z14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2287,16 +2302,16 @@
         <v>166</v>
       </c>
       <c r="W15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Z15" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2361,16 +2376,16 @@
         <v>166</v>
       </c>
       <c r="W16" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="X16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z16" t="s">
         <v>187</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -2438,16 +2453,16 @@
         <v>166</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -2515,16 +2530,16 @@
         <v>166</v>
       </c>
       <c r="W18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2592,16 +2607,16 @@
         <v>166</v>
       </c>
       <c r="W19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2666,16 +2681,16 @@
         <v>166</v>
       </c>
       <c r="W20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="X20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z20" t="s">
         <v>187</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2740,13 +2755,13 @@
         <v>167</v>
       </c>
       <c r="W21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="X21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Z21" t="s">
         <v>206</v>
@@ -2817,16 +2832,16 @@
         <v>166</v>
       </c>
       <c r="W22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z22" t="s">
         <v>187</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2894,16 +2909,16 @@
         <v>166</v>
       </c>
       <c r="W23" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="X23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z23" t="s">
         <v>187</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2971,13 +2986,13 @@
         <v>167</v>
       </c>
       <c r="W24" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="X24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Z24" t="s">
         <v>206</v>
@@ -3045,16 +3060,16 @@
         <v>166</v>
       </c>
       <c r="W25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -3122,13 +3137,13 @@
         <v>172</v>
       </c>
       <c r="X26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y26" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z26" t="s">
         <v>187</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -3196,16 +3211,16 @@
         <v>166</v>
       </c>
       <c r="W27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y27" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Z27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3270,16 +3285,16 @@
         <v>166</v>
       </c>
       <c r="W28" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="X28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Z28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -3347,16 +3362,16 @@
         <v>166</v>
       </c>
       <c r="W29" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="X29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z29" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -3367,16 +3382,16 @@
         <v>166</v>
       </c>
       <c r="W30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y30" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Z30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
